--- a/Fusion/ETL/Customers/Common/HCM/WorkStructuresMigration/WorkStructure_IFTY_V1_FUSN_R7/data-in/FBL/InfovityHCMPersonPIIs.xlsx
+++ b/Fusion/ETL/Customers/Common/HCM/WorkStructuresMigration/WorkStructure_IFTY_V1_FUSN_R7/data-in/FBL/InfovityHCMPersonPIIs.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="740" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2126" uniqueCount="140">
   <si>
     <t>Personally Identifiable Information</t>
   </si>
@@ -445,7 +445,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="12">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="000000"/>
+  </numFmts>
+  <fonts count="14">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -524,6 +527,17 @@
     <font>
       <sz val="9"/>
       <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -691,7 +705,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -736,6 +750,8 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -1026,10 +1042,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L107"/>
+  <dimension ref="A1:L305"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1057,20 +1073,20 @@
     <row r="2" spans="1:12" s="8" customFormat="1" ht="15.75" customHeight="1">
       <c r="A2" s="6"/>
       <c r="B2" s="7"/>
-      <c r="C2" s="18" t="s">
+      <c r="C2" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="20" t="s">
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="18"/>
-      <c r="I2" s="18"/>
-      <c r="J2" s="18"/>
-      <c r="K2" s="18"/>
-      <c r="L2" s="19"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="20"/>
+      <c r="J2" s="20"/>
+      <c r="K2" s="20"/>
+      <c r="L2" s="21"/>
     </row>
     <row r="3" spans="1:12" s="8" customFormat="1" ht="38.25">
       <c r="A3" s="9" t="s">
@@ -1184,9 +1200,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:12" s="14" customFormat="1" ht="12">
-      <c r="A7" s="15">
-        <v>89000</v>
+    <row r="7" spans="1:12" s="14" customFormat="1">
+      <c r="A7" s="18">
+        <v>11188</v>
       </c>
       <c r="B7" s="16">
         <v>25589</v>
@@ -1223,8 +1239,8 @@
       </c>
     </row>
     <row r="8" spans="1:12">
-      <c r="A8" s="15">
-        <v>89001</v>
+      <c r="A8" s="18">
+        <v>11143</v>
       </c>
       <c r="B8" s="16">
         <v>25589</v>
@@ -1261,8 +1277,8 @@
       </c>
     </row>
     <row r="9" spans="1:12">
-      <c r="A9" s="15">
-        <v>89002</v>
+      <c r="A9" s="18">
+        <v>10921</v>
       </c>
       <c r="B9" s="16">
         <v>25589</v>
@@ -1299,8 +1315,8 @@
       </c>
     </row>
     <row r="10" spans="1:12">
-      <c r="A10" s="15">
-        <v>89003</v>
+      <c r="A10" s="18">
+        <v>11226</v>
       </c>
       <c r="B10" s="16">
         <v>25589</v>
@@ -1337,8 +1353,8 @@
       </c>
     </row>
     <row r="11" spans="1:12">
-      <c r="A11" s="15">
-        <v>89004</v>
+      <c r="A11" s="18">
+        <v>10801</v>
       </c>
       <c r="B11" s="16">
         <v>25589</v>
@@ -1375,8 +1391,8 @@
       </c>
     </row>
     <row r="12" spans="1:12">
-      <c r="A12" s="15">
-        <v>89005</v>
+      <c r="A12" s="18">
+        <v>11016</v>
       </c>
       <c r="B12" s="16">
         <v>25589</v>
@@ -1413,8 +1429,8 @@
       </c>
     </row>
     <row r="13" spans="1:12">
-      <c r="A13" s="15">
-        <v>89006</v>
+      <c r="A13" s="18">
+        <v>10778</v>
       </c>
       <c r="B13" s="16">
         <v>25589</v>
@@ -1451,8 +1467,8 @@
       </c>
     </row>
     <row r="14" spans="1:12">
-      <c r="A14" s="15">
-        <v>89007</v>
+      <c r="A14" s="18">
+        <v>1613</v>
       </c>
       <c r="B14" s="16">
         <v>25589</v>
@@ -1489,8 +1505,8 @@
       </c>
     </row>
     <row r="15" spans="1:12">
-      <c r="A15" s="15">
-        <v>89008</v>
+      <c r="A15" s="18">
+        <v>11017</v>
       </c>
       <c r="B15" s="16">
         <v>25589</v>
@@ -1527,8 +1543,8 @@
       </c>
     </row>
     <row r="16" spans="1:12">
-      <c r="A16" s="15">
-        <v>89009</v>
+      <c r="A16" s="18">
+        <v>10999</v>
       </c>
       <c r="B16" s="16">
         <v>25589</v>
@@ -1565,8 +1581,8 @@
       </c>
     </row>
     <row r="17" spans="1:12">
-      <c r="A17" s="15">
-        <v>89010</v>
+      <c r="A17" s="18">
+        <v>10036</v>
       </c>
       <c r="B17" s="16">
         <v>25589</v>
@@ -1603,8 +1619,8 @@
       </c>
     </row>
     <row r="18" spans="1:12">
-      <c r="A18" s="15">
-        <v>89011</v>
+      <c r="A18" s="18">
+        <v>11183</v>
       </c>
       <c r="B18" s="16">
         <v>25589</v>
@@ -1641,8 +1657,8 @@
       </c>
     </row>
     <row r="19" spans="1:12">
-      <c r="A19" s="15">
-        <v>89012</v>
+      <c r="A19" s="18">
+        <v>10975</v>
       </c>
       <c r="B19" s="16">
         <v>25589</v>
@@ -1679,8 +1695,8 @@
       </c>
     </row>
     <row r="20" spans="1:12">
-      <c r="A20" s="15">
-        <v>89013</v>
+      <c r="A20" s="18">
+        <v>11051</v>
       </c>
       <c r="B20" s="16">
         <v>25589</v>
@@ -1717,8 +1733,8 @@
       </c>
     </row>
     <row r="21" spans="1:12">
-      <c r="A21" s="15">
-        <v>89014</v>
+      <c r="A21" s="18">
+        <v>11190</v>
       </c>
       <c r="B21" s="16">
         <v>25589</v>
@@ -1755,8 +1771,8 @@
       </c>
     </row>
     <row r="22" spans="1:12">
-      <c r="A22" s="15">
-        <v>89015</v>
+      <c r="A22" s="18">
+        <v>10638</v>
       </c>
       <c r="B22" s="16">
         <v>25589</v>
@@ -1793,8 +1809,8 @@
       </c>
     </row>
     <row r="23" spans="1:12">
-      <c r="A23" s="15">
-        <v>89016</v>
+      <c r="A23" s="18">
+        <v>10234</v>
       </c>
       <c r="B23" s="16">
         <v>25589</v>
@@ -1831,8 +1847,8 @@
       </c>
     </row>
     <row r="24" spans="1:12">
-      <c r="A24" s="15">
-        <v>89017</v>
+      <c r="A24" s="18">
+        <v>10926</v>
       </c>
       <c r="B24" s="16">
         <v>25589</v>
@@ -1869,8 +1885,8 @@
       </c>
     </row>
     <row r="25" spans="1:12">
-      <c r="A25" s="15">
-        <v>89018</v>
+      <c r="A25" s="18">
+        <v>11111</v>
       </c>
       <c r="B25" s="16">
         <v>25589</v>
@@ -1907,8 +1923,8 @@
       </c>
     </row>
     <row r="26" spans="1:12">
-      <c r="A26" s="15">
-        <v>89019</v>
+      <c r="A26" s="18">
+        <v>10890</v>
       </c>
       <c r="B26" s="16">
         <v>25589</v>
@@ -1945,8 +1961,8 @@
       </c>
     </row>
     <row r="27" spans="1:12">
-      <c r="A27" s="15">
-        <v>89020</v>
+      <c r="A27" s="18">
+        <v>10983</v>
       </c>
       <c r="B27" s="16">
         <v>25589</v>
@@ -1983,8 +1999,8 @@
       </c>
     </row>
     <row r="28" spans="1:12">
-      <c r="A28" s="15">
-        <v>89021</v>
+      <c r="A28" s="18">
+        <v>1412</v>
       </c>
       <c r="B28" s="16">
         <v>25589</v>
@@ -2021,8 +2037,8 @@
       </c>
     </row>
     <row r="29" spans="1:12">
-      <c r="A29" s="15">
-        <v>89022</v>
+      <c r="A29" s="18">
+        <v>10995</v>
       </c>
       <c r="B29" s="16">
         <v>25589</v>
@@ -2059,8 +2075,8 @@
       </c>
     </row>
     <row r="30" spans="1:12">
-      <c r="A30" s="15">
-        <v>89023</v>
+      <c r="A30" s="18">
+        <v>10314</v>
       </c>
       <c r="B30" s="16">
         <v>25589</v>
@@ -2097,8 +2113,8 @@
       </c>
     </row>
     <row r="31" spans="1:12">
-      <c r="A31" s="15">
-        <v>89024</v>
+      <c r="A31" s="18">
+        <v>11059</v>
       </c>
       <c r="B31" s="16">
         <v>25589</v>
@@ -2135,8 +2151,8 @@
       </c>
     </row>
     <row r="32" spans="1:12">
-      <c r="A32" s="15">
-        <v>89025</v>
+      <c r="A32" s="18">
+        <v>11202</v>
       </c>
       <c r="B32" s="16">
         <v>25589</v>
@@ -2173,8 +2189,8 @@
       </c>
     </row>
     <row r="33" spans="1:12">
-      <c r="A33" s="15">
-        <v>89026</v>
+      <c r="A33" s="18">
+        <v>1002</v>
       </c>
       <c r="B33" s="16">
         <v>25589</v>
@@ -2211,8 +2227,8 @@
       </c>
     </row>
     <row r="34" spans="1:12">
-      <c r="A34" s="15">
-        <v>89027</v>
+      <c r="A34" s="18">
+        <v>417</v>
       </c>
       <c r="B34" s="16">
         <v>25589</v>
@@ -2249,8 +2265,8 @@
       </c>
     </row>
     <row r="35" spans="1:12">
-      <c r="A35" s="15">
-        <v>89028</v>
+      <c r="A35" s="18">
+        <v>11011</v>
       </c>
       <c r="B35" s="16">
         <v>25589</v>
@@ -2287,8 +2303,8 @@
       </c>
     </row>
     <row r="36" spans="1:12">
-      <c r="A36" s="15">
-        <v>89029</v>
+      <c r="A36" s="18">
+        <v>11158</v>
       </c>
       <c r="B36" s="16">
         <v>25589</v>
@@ -2325,8 +2341,8 @@
       </c>
     </row>
     <row r="37" spans="1:12">
-      <c r="A37" s="15">
-        <v>89030</v>
+      <c r="A37" s="18">
+        <v>10650</v>
       </c>
       <c r="B37" s="16">
         <v>25589</v>
@@ -2363,8 +2379,8 @@
       </c>
     </row>
     <row r="38" spans="1:12">
-      <c r="A38" s="15">
-        <v>89031</v>
+      <c r="A38" s="18">
+        <v>10667</v>
       </c>
       <c r="B38" s="16">
         <v>25589</v>
@@ -2401,8 +2417,8 @@
       </c>
     </row>
     <row r="39" spans="1:12">
-      <c r="A39" s="15">
-        <v>89032</v>
+      <c r="A39" s="18">
+        <v>1440</v>
       </c>
       <c r="B39" s="16">
         <v>25589</v>
@@ -2439,8 +2455,8 @@
       </c>
     </row>
     <row r="40" spans="1:12">
-      <c r="A40" s="15">
-        <v>89033</v>
+      <c r="A40" s="18">
+        <v>10419</v>
       </c>
       <c r="B40" s="16">
         <v>25589</v>
@@ -2477,8 +2493,8 @@
       </c>
     </row>
     <row r="41" spans="1:12">
-      <c r="A41" s="15">
-        <v>89034</v>
+      <c r="A41" s="18">
+        <v>807</v>
       </c>
       <c r="B41" s="16">
         <v>25589</v>
@@ -2515,8 +2531,8 @@
       </c>
     </row>
     <row r="42" spans="1:12">
-      <c r="A42" s="15">
-        <v>89035</v>
+      <c r="A42" s="18">
+        <v>11064</v>
       </c>
       <c r="B42" s="16">
         <v>25589</v>
@@ -2553,8 +2569,8 @@
       </c>
     </row>
     <row r="43" spans="1:12">
-      <c r="A43" s="15">
-        <v>89036</v>
+      <c r="A43" s="18">
+        <v>750</v>
       </c>
       <c r="B43" s="16">
         <v>25589</v>
@@ -2591,8 +2607,8 @@
       </c>
     </row>
     <row r="44" spans="1:12">
-      <c r="A44" s="15">
-        <v>89037</v>
+      <c r="A44" s="18">
+        <v>11112</v>
       </c>
       <c r="B44" s="16">
         <v>25589</v>
@@ -2629,8 +2645,8 @@
       </c>
     </row>
     <row r="45" spans="1:12">
-      <c r="A45" s="15">
-        <v>89038</v>
+      <c r="A45" s="18">
+        <v>10327</v>
       </c>
       <c r="B45" s="16">
         <v>25589</v>
@@ -2667,8 +2683,8 @@
       </c>
     </row>
     <row r="46" spans="1:12">
-      <c r="A46" s="15">
-        <v>89039</v>
+      <c r="A46" s="18">
+        <v>1115</v>
       </c>
       <c r="B46" s="16">
         <v>25589</v>
@@ -2705,8 +2721,8 @@
       </c>
     </row>
     <row r="47" spans="1:12">
-      <c r="A47" s="15">
-        <v>89040</v>
+      <c r="A47" s="18">
+        <v>11173</v>
       </c>
       <c r="B47" s="16">
         <v>25589</v>
@@ -2743,8 +2759,8 @@
       </c>
     </row>
     <row r="48" spans="1:12">
-      <c r="A48" s="15">
-        <v>89041</v>
+      <c r="A48" s="18">
+        <v>10469</v>
       </c>
       <c r="B48" s="16">
         <v>25589</v>
@@ -2781,8 +2797,8 @@
       </c>
     </row>
     <row r="49" spans="1:12">
-      <c r="A49" s="15">
-        <v>89042</v>
+      <c r="A49" s="18">
+        <v>10187</v>
       </c>
       <c r="B49" s="16">
         <v>25589</v>
@@ -2819,8 +2835,8 @@
       </c>
     </row>
     <row r="50" spans="1:12">
-      <c r="A50" s="15">
-        <v>89043</v>
+      <c r="A50" s="18">
+        <v>11046</v>
       </c>
       <c r="B50" s="16">
         <v>25589</v>
@@ -2857,8 +2873,8 @@
       </c>
     </row>
     <row r="51" spans="1:12">
-      <c r="A51" s="15">
-        <v>89044</v>
+      <c r="A51" s="18">
+        <v>10961</v>
       </c>
       <c r="B51" s="16">
         <v>25589</v>
@@ -2895,8 +2911,8 @@
       </c>
     </row>
     <row r="52" spans="1:12">
-      <c r="A52" s="15">
-        <v>89045</v>
+      <c r="A52" s="18">
+        <v>10403</v>
       </c>
       <c r="B52" s="16">
         <v>25589</v>
@@ -2933,8 +2949,8 @@
       </c>
     </row>
     <row r="53" spans="1:12">
-      <c r="A53" s="15">
-        <v>89046</v>
+      <c r="A53" s="18">
+        <v>10451</v>
       </c>
       <c r="B53" s="16">
         <v>25589</v>
@@ -2971,8 +2987,8 @@
       </c>
     </row>
     <row r="54" spans="1:12">
-      <c r="A54" s="15">
-        <v>89047</v>
+      <c r="A54" s="18">
+        <v>10980</v>
       </c>
       <c r="B54" s="16">
         <v>25589</v>
@@ -3009,8 +3025,8 @@
       </c>
     </row>
     <row r="55" spans="1:12">
-      <c r="A55" s="15">
-        <v>89048</v>
+      <c r="A55" s="18">
+        <v>11058</v>
       </c>
       <c r="B55" s="16">
         <v>25589</v>
@@ -3047,8 +3063,8 @@
       </c>
     </row>
     <row r="56" spans="1:12">
-      <c r="A56" s="15">
-        <v>89049</v>
+      <c r="A56" s="18">
+        <v>10879</v>
       </c>
       <c r="B56" s="16">
         <v>25589</v>
@@ -3085,8 +3101,8 @@
       </c>
     </row>
     <row r="57" spans="1:12">
-      <c r="A57" s="15">
-        <v>89050</v>
+      <c r="A57" s="18">
+        <v>10809</v>
       </c>
       <c r="B57" s="16">
         <v>25589</v>
@@ -3123,8 +3139,8 @@
       </c>
     </row>
     <row r="58" spans="1:12">
-      <c r="A58" s="15">
-        <v>89051</v>
+      <c r="A58" s="18">
+        <v>10379</v>
       </c>
       <c r="B58" s="16">
         <v>25589</v>
@@ -3161,8 +3177,8 @@
       </c>
     </row>
     <row r="59" spans="1:12">
-      <c r="A59" s="15">
-        <v>89052</v>
+      <c r="A59" s="18">
+        <v>10581</v>
       </c>
       <c r="B59" s="16">
         <v>25589</v>
@@ -3199,8 +3215,8 @@
       </c>
     </row>
     <row r="60" spans="1:12">
-      <c r="A60" s="15">
-        <v>89053</v>
+      <c r="A60" s="18">
+        <v>806</v>
       </c>
       <c r="B60" s="16">
         <v>25589</v>
@@ -3237,8 +3253,8 @@
       </c>
     </row>
     <row r="61" spans="1:12">
-      <c r="A61" s="15">
-        <v>89054</v>
+      <c r="A61" s="18">
+        <v>10899</v>
       </c>
       <c r="B61" s="16">
         <v>25589</v>
@@ -3275,8 +3291,8 @@
       </c>
     </row>
     <row r="62" spans="1:12">
-      <c r="A62" s="15">
-        <v>89055</v>
+      <c r="A62" s="18">
+        <v>1506</v>
       </c>
       <c r="B62" s="16">
         <v>25589</v>
@@ -3313,8 +3329,8 @@
       </c>
     </row>
     <row r="63" spans="1:12">
-      <c r="A63" s="15">
-        <v>89056</v>
+      <c r="A63" s="18">
+        <v>10991</v>
       </c>
       <c r="B63" s="16">
         <v>25589</v>
@@ -3351,8 +3367,8 @@
       </c>
     </row>
     <row r="64" spans="1:12">
-      <c r="A64" s="15">
-        <v>89057</v>
+      <c r="A64" s="18">
+        <v>10541</v>
       </c>
       <c r="B64" s="16">
         <v>25589</v>
@@ -3389,8 +3405,8 @@
       </c>
     </row>
     <row r="65" spans="1:12">
-      <c r="A65" s="15">
-        <v>89058</v>
+      <c r="A65" s="18">
+        <v>10929</v>
       </c>
       <c r="B65" s="16">
         <v>25589</v>
@@ -3427,8 +3443,8 @@
       </c>
     </row>
     <row r="66" spans="1:12">
-      <c r="A66" s="15">
-        <v>89059</v>
+      <c r="A66" s="18">
+        <v>10408</v>
       </c>
       <c r="B66" s="16">
         <v>25589</v>
@@ -3465,8 +3481,8 @@
       </c>
     </row>
     <row r="67" spans="1:12">
-      <c r="A67" s="15">
-        <v>89060</v>
+      <c r="A67" s="18">
+        <v>10208</v>
       </c>
       <c r="B67" s="16">
         <v>25589</v>
@@ -3503,8 +3519,8 @@
       </c>
     </row>
     <row r="68" spans="1:12">
-      <c r="A68" s="15">
-        <v>89061</v>
+      <c r="A68" s="18">
+        <v>10229</v>
       </c>
       <c r="B68" s="16">
         <v>25589</v>
@@ -3541,8 +3557,8 @@
       </c>
     </row>
     <row r="69" spans="1:12">
-      <c r="A69" s="15">
-        <v>89062</v>
+      <c r="A69" s="18">
+        <v>1120</v>
       </c>
       <c r="B69" s="16">
         <v>25589</v>
@@ -3579,8 +3595,8 @@
       </c>
     </row>
     <row r="70" spans="1:12">
-      <c r="A70" s="15">
-        <v>89063</v>
+      <c r="A70" s="18">
+        <v>10356</v>
       </c>
       <c r="B70" s="16">
         <v>25589</v>
@@ -3617,8 +3633,8 @@
       </c>
     </row>
     <row r="71" spans="1:12">
-      <c r="A71" s="15">
-        <v>89064</v>
+      <c r="A71" s="18">
+        <v>11060</v>
       </c>
       <c r="B71" s="16">
         <v>25589</v>
@@ -3655,8 +3671,8 @@
       </c>
     </row>
     <row r="72" spans="1:12">
-      <c r="A72" s="15">
-        <v>89065</v>
+      <c r="A72" s="18">
+        <v>851</v>
       </c>
       <c r="B72" s="16">
         <v>25589</v>
@@ -3693,8 +3709,8 @@
       </c>
     </row>
     <row r="73" spans="1:12">
-      <c r="A73" s="15">
-        <v>89066</v>
+      <c r="A73" s="18">
+        <v>11069</v>
       </c>
       <c r="B73" s="16">
         <v>25589</v>
@@ -3731,8 +3747,8 @@
       </c>
     </row>
     <row r="74" spans="1:12">
-      <c r="A74" s="15">
-        <v>89067</v>
+      <c r="A74" s="18">
+        <v>10643</v>
       </c>
       <c r="B74" s="16">
         <v>25589</v>
@@ -3769,8 +3785,8 @@
       </c>
     </row>
     <row r="75" spans="1:12">
-      <c r="A75" s="15">
-        <v>89068</v>
+      <c r="A75" s="18">
+        <v>11104</v>
       </c>
       <c r="B75" s="16">
         <v>25589</v>
@@ -3807,8 +3823,8 @@
       </c>
     </row>
     <row r="76" spans="1:12">
-      <c r="A76" s="15">
-        <v>89069</v>
+      <c r="A76" s="18">
+        <v>11171</v>
       </c>
       <c r="B76" s="16">
         <v>25589</v>
@@ -3845,8 +3861,8 @@
       </c>
     </row>
     <row r="77" spans="1:12">
-      <c r="A77" s="15">
-        <v>89070</v>
+      <c r="A77" s="18">
+        <v>11065</v>
       </c>
       <c r="B77" s="16">
         <v>25589</v>
@@ -3883,8 +3899,8 @@
       </c>
     </row>
     <row r="78" spans="1:12">
-      <c r="A78" s="15">
-        <v>89071</v>
+      <c r="A78" s="18">
+        <v>10963</v>
       </c>
       <c r="B78" s="16">
         <v>25589</v>
@@ -3921,8 +3937,8 @@
       </c>
     </row>
     <row r="79" spans="1:12">
-      <c r="A79" s="15">
-        <v>89072</v>
+      <c r="A79" s="18">
+        <v>10895</v>
       </c>
       <c r="B79" s="16">
         <v>25589</v>
@@ -3959,8 +3975,8 @@
       </c>
     </row>
     <row r="80" spans="1:12">
-      <c r="A80" s="15">
-        <v>89073</v>
+      <c r="A80" s="18">
+        <v>557</v>
       </c>
       <c r="B80" s="16">
         <v>25589</v>
@@ -3997,8 +4013,8 @@
       </c>
     </row>
     <row r="81" spans="1:12">
-      <c r="A81" s="15">
-        <v>89074</v>
+      <c r="A81" s="18">
+        <v>10415</v>
       </c>
       <c r="B81" s="16">
         <v>25589</v>
@@ -4035,8 +4051,8 @@
       </c>
     </row>
     <row r="82" spans="1:12">
-      <c r="A82" s="15">
-        <v>89075</v>
+      <c r="A82" s="18">
+        <v>10992</v>
       </c>
       <c r="B82" s="16">
         <v>25589</v>
@@ -4073,8 +4089,8 @@
       </c>
     </row>
     <row r="83" spans="1:12">
-      <c r="A83" s="15">
-        <v>89076</v>
+      <c r="A83" s="18">
+        <v>10743</v>
       </c>
       <c r="B83" s="16">
         <v>25589</v>
@@ -4111,8 +4127,8 @@
       </c>
     </row>
     <row r="84" spans="1:12">
-      <c r="A84" s="15">
-        <v>89077</v>
+      <c r="A84" s="18">
+        <v>10739</v>
       </c>
       <c r="B84" s="16">
         <v>25589</v>
@@ -4149,8 +4165,8 @@
       </c>
     </row>
     <row r="85" spans="1:12">
-      <c r="A85" s="15">
-        <v>89078</v>
+      <c r="A85" s="18">
+        <v>11055</v>
       </c>
       <c r="B85" s="16">
         <v>25589</v>
@@ -4187,8 +4203,8 @@
       </c>
     </row>
     <row r="86" spans="1:12">
-      <c r="A86" s="15">
-        <v>89079</v>
+      <c r="A86" s="18">
+        <v>10586</v>
       </c>
       <c r="B86" s="16">
         <v>25589</v>
@@ -4225,8 +4241,8 @@
       </c>
     </row>
     <row r="87" spans="1:12">
-      <c r="A87" s="15">
-        <v>89080</v>
+      <c r="A87" s="18">
+        <v>11049</v>
       </c>
       <c r="B87" s="16">
         <v>25589</v>
@@ -4263,8 +4279,8 @@
       </c>
     </row>
     <row r="88" spans="1:12">
-      <c r="A88" s="15">
-        <v>89081</v>
+      <c r="A88" s="18">
+        <v>11038</v>
       </c>
       <c r="B88" s="16">
         <v>25589</v>
@@ -4301,8 +4317,8 @@
       </c>
     </row>
     <row r="89" spans="1:12">
-      <c r="A89" s="15">
-        <v>89082</v>
+      <c r="A89" s="18">
+        <v>10513</v>
       </c>
       <c r="B89" s="16">
         <v>25589</v>
@@ -4339,8 +4355,8 @@
       </c>
     </row>
     <row r="90" spans="1:12">
-      <c r="A90" s="15">
-        <v>89083</v>
+      <c r="A90" s="18">
+        <v>10970</v>
       </c>
       <c r="B90" s="16">
         <v>25589</v>
@@ -4377,8 +4393,8 @@
       </c>
     </row>
     <row r="91" spans="1:12">
-      <c r="A91" s="15">
-        <v>89084</v>
+      <c r="A91" s="18">
+        <v>10022</v>
       </c>
       <c r="B91" s="16">
         <v>25589</v>
@@ -4415,8 +4431,8 @@
       </c>
     </row>
     <row r="92" spans="1:12">
-      <c r="A92" s="15">
-        <v>89085</v>
+      <c r="A92" s="18">
+        <v>920</v>
       </c>
       <c r="B92" s="16">
         <v>25589</v>
@@ -4453,8 +4469,8 @@
       </c>
     </row>
     <row r="93" spans="1:12">
-      <c r="A93" s="15">
-        <v>89086</v>
+      <c r="A93" s="18">
+        <v>11121</v>
       </c>
       <c r="B93" s="16">
         <v>25589</v>
@@ -4491,8 +4507,8 @@
       </c>
     </row>
     <row r="94" spans="1:12">
-      <c r="A94" s="15">
-        <v>89087</v>
+      <c r="A94" s="18">
+        <v>10816</v>
       </c>
       <c r="B94" s="16">
         <v>25589</v>
@@ -4529,8 +4545,8 @@
       </c>
     </row>
     <row r="95" spans="1:12">
-      <c r="A95" s="15">
-        <v>89088</v>
+      <c r="A95" s="18">
+        <v>11232</v>
       </c>
       <c r="B95" s="16">
         <v>25589</v>
@@ -4567,8 +4583,8 @@
       </c>
     </row>
     <row r="96" spans="1:12">
-      <c r="A96" s="15">
-        <v>89089</v>
+      <c r="A96" s="18">
+        <v>10673</v>
       </c>
       <c r="B96" s="16">
         <v>25589</v>
@@ -4605,8 +4621,8 @@
       </c>
     </row>
     <row r="97" spans="1:12">
-      <c r="A97" s="15">
-        <v>89090</v>
+      <c r="A97" s="18">
+        <v>10626</v>
       </c>
       <c r="B97" s="16">
         <v>25589</v>
@@ -4643,8 +4659,8 @@
       </c>
     </row>
     <row r="98" spans="1:12">
-      <c r="A98" s="15">
-        <v>89091</v>
+      <c r="A98" s="18">
+        <v>11237</v>
       </c>
       <c r="B98" s="16">
         <v>25589</v>
@@ -4681,8 +4697,8 @@
       </c>
     </row>
     <row r="99" spans="1:12">
-      <c r="A99" s="15">
-        <v>89092</v>
+      <c r="A99" s="18">
+        <v>10973</v>
       </c>
       <c r="B99" s="16">
         <v>25589</v>
@@ -4719,8 +4735,8 @@
       </c>
     </row>
     <row r="100" spans="1:12">
-      <c r="A100" s="15">
-        <v>89093</v>
+      <c r="A100" s="18">
+        <v>10524</v>
       </c>
       <c r="B100" s="16">
         <v>25589</v>
@@ -4757,8 +4773,8 @@
       </c>
     </row>
     <row r="101" spans="1:12">
-      <c r="A101" s="15">
-        <v>89094</v>
+      <c r="A101" s="18">
+        <v>11084</v>
       </c>
       <c r="B101" s="16">
         <v>25589</v>
@@ -4795,8 +4811,8 @@
       </c>
     </row>
     <row r="102" spans="1:12">
-      <c r="A102" s="15">
-        <v>89095</v>
+      <c r="A102" s="18">
+        <v>11126</v>
       </c>
       <c r="B102" s="16">
         <v>25589</v>
@@ -4833,8 +4849,8 @@
       </c>
     </row>
     <row r="103" spans="1:12">
-      <c r="A103" s="15">
-        <v>89096</v>
+      <c r="A103" s="18">
+        <v>10062</v>
       </c>
       <c r="B103" s="16">
         <v>25589</v>
@@ -4871,8 +4887,8 @@
       </c>
     </row>
     <row r="104" spans="1:12">
-      <c r="A104" s="15">
-        <v>89097</v>
+      <c r="A104" s="18">
+        <v>10965</v>
       </c>
       <c r="B104" s="16">
         <v>25589</v>
@@ -4909,8 +4925,8 @@
       </c>
     </row>
     <row r="105" spans="1:12">
-      <c r="A105" s="15">
-        <v>89097</v>
+      <c r="A105" s="18">
+        <v>10974</v>
       </c>
       <c r="B105" s="16">
         <v>25589</v>
@@ -4947,7 +4963,9 @@
       </c>
     </row>
     <row r="106" spans="1:12">
-      <c r="A106" s="15"/>
+      <c r="A106" s="18">
+        <v>11184</v>
+      </c>
       <c r="B106" s="16">
         <v>25589</v>
       </c>
@@ -4983,7 +5001,9 @@
       </c>
     </row>
     <row r="107" spans="1:12">
-      <c r="A107" s="15"/>
+      <c r="A107" s="18">
+        <v>11234</v>
+      </c>
       <c r="B107" s="16">
         <v>25589</v>
       </c>
@@ -5015,6 +5035,7530 @@
         <v>32894</v>
       </c>
       <c r="L107" s="16">
+        <v>25589</v>
+      </c>
+    </row>
+    <row r="108" spans="1:12">
+      <c r="A108" s="18">
+        <v>11140</v>
+      </c>
+      <c r="B108" s="16">
+        <v>25589</v>
+      </c>
+      <c r="C108" s="16">
+        <v>25589</v>
+      </c>
+      <c r="D108" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="E108" s="15" t="s">
+        <v>139</v>
+      </c>
+      <c r="F108" s="15" t="s">
+        <v>138</v>
+      </c>
+      <c r="G108" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="H108" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="I108" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="J108" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="K108" s="16">
+        <v>32894</v>
+      </c>
+      <c r="L108" s="16">
+        <v>25589</v>
+      </c>
+    </row>
+    <row r="109" spans="1:12">
+      <c r="A109" s="18">
+        <v>11032</v>
+      </c>
+      <c r="B109" s="16">
+        <v>25589</v>
+      </c>
+      <c r="C109" s="16">
+        <v>25589</v>
+      </c>
+      <c r="D109" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="E109" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="F109" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="G109" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="H109" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="I109" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="J109" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="K109" s="16">
+        <v>32894</v>
+      </c>
+      <c r="L109" s="16">
+        <v>25589</v>
+      </c>
+    </row>
+    <row r="110" spans="1:12">
+      <c r="A110" s="18">
+        <v>11063</v>
+      </c>
+      <c r="B110" s="16">
+        <v>25589</v>
+      </c>
+      <c r="C110" s="16">
+        <v>25589</v>
+      </c>
+      <c r="D110" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="E110" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="F110" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="G110" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="H110" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="I110" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="J110" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="K110" s="16">
+        <v>32894</v>
+      </c>
+      <c r="L110" s="16">
+        <v>25589</v>
+      </c>
+    </row>
+    <row r="111" spans="1:12">
+      <c r="A111" s="18">
+        <v>10430</v>
+      </c>
+      <c r="B111" s="16">
+        <v>25589</v>
+      </c>
+      <c r="C111" s="16">
+        <v>25589</v>
+      </c>
+      <c r="D111" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="E111" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="F111" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="G111" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="H111" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="I111" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="J111" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="K111" s="16">
+        <v>32894</v>
+      </c>
+      <c r="L111" s="16">
+        <v>25589</v>
+      </c>
+    </row>
+    <row r="112" spans="1:12">
+      <c r="A112" s="18">
+        <v>525</v>
+      </c>
+      <c r="B112" s="16">
+        <v>25589</v>
+      </c>
+      <c r="C112" s="16">
+        <v>25589</v>
+      </c>
+      <c r="D112" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="E112" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="F112" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="G112" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="H112" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="I112" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="J112" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="K112" s="16">
+        <v>32894</v>
+      </c>
+      <c r="L112" s="16">
+        <v>25589</v>
+      </c>
+    </row>
+    <row r="113" spans="1:12">
+      <c r="A113" s="18">
+        <v>1540</v>
+      </c>
+      <c r="B113" s="16">
+        <v>25589</v>
+      </c>
+      <c r="C113" s="16">
+        <v>25589</v>
+      </c>
+      <c r="D113" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="E113" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="F113" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="G113" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="H113" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="I113" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="J113" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="K113" s="16">
+        <v>32894</v>
+      </c>
+      <c r="L113" s="16">
+        <v>25589</v>
+      </c>
+    </row>
+    <row r="114" spans="1:12">
+      <c r="A114" s="18">
+        <v>11159</v>
+      </c>
+      <c r="B114" s="16">
+        <v>25589</v>
+      </c>
+      <c r="C114" s="16">
+        <v>25589</v>
+      </c>
+      <c r="D114" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="E114" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="F114" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="G114" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="H114" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="I114" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="J114" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="K114" s="16">
+        <v>32894</v>
+      </c>
+      <c r="L114" s="16">
+        <v>25589</v>
+      </c>
+    </row>
+    <row r="115" spans="1:12">
+      <c r="A115" s="18">
+        <v>10015</v>
+      </c>
+      <c r="B115" s="16">
+        <v>25589</v>
+      </c>
+      <c r="C115" s="16">
+        <v>25589</v>
+      </c>
+      <c r="D115" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="E115" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="F115" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="G115" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="H115" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="I115" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="J115" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="K115" s="16">
+        <v>32894</v>
+      </c>
+      <c r="L115" s="16">
+        <v>25589</v>
+      </c>
+    </row>
+    <row r="116" spans="1:12">
+      <c r="A116" s="18">
+        <v>10556</v>
+      </c>
+      <c r="B116" s="16">
+        <v>25589</v>
+      </c>
+      <c r="C116" s="16">
+        <v>25589</v>
+      </c>
+      <c r="D116" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="E116" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="F116" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="G116" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="H116" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="I116" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="J116" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="K116" s="16">
+        <v>32894</v>
+      </c>
+      <c r="L116" s="16">
+        <v>25589</v>
+      </c>
+    </row>
+    <row r="117" spans="1:12">
+      <c r="A117" s="18">
+        <v>10549</v>
+      </c>
+      <c r="B117" s="16">
+        <v>25589</v>
+      </c>
+      <c r="C117" s="16">
+        <v>25589</v>
+      </c>
+      <c r="D117" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="E117" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="F117" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="G117" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="H117" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="I117" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="J117" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="K117" s="16">
+        <v>32894</v>
+      </c>
+      <c r="L117" s="16">
+        <v>25589</v>
+      </c>
+    </row>
+    <row r="118" spans="1:12">
+      <c r="A118" s="18">
+        <v>10917</v>
+      </c>
+      <c r="B118" s="16">
+        <v>25589</v>
+      </c>
+      <c r="C118" s="16">
+        <v>25589</v>
+      </c>
+      <c r="D118" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="E118" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="F118" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="G118" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="H118" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="I118" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="J118" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="K118" s="16">
+        <v>32894</v>
+      </c>
+      <c r="L118" s="16">
+        <v>25589</v>
+      </c>
+    </row>
+    <row r="119" spans="1:12">
+      <c r="A119" s="18">
+        <v>11152</v>
+      </c>
+      <c r="B119" s="16">
+        <v>25589</v>
+      </c>
+      <c r="C119" s="16">
+        <v>25589</v>
+      </c>
+      <c r="D119" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="E119" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="F119" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="G119" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="H119" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="I119" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="J119" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="K119" s="16">
+        <v>32894</v>
+      </c>
+      <c r="L119" s="16">
+        <v>25589</v>
+      </c>
+    </row>
+    <row r="120" spans="1:12">
+      <c r="A120" s="18">
+        <v>10897</v>
+      </c>
+      <c r="B120" s="16">
+        <v>25589</v>
+      </c>
+      <c r="C120" s="16">
+        <v>25589</v>
+      </c>
+      <c r="D120" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="E120" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="F120" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="G120" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="H120" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="I120" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="J120" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="K120" s="16">
+        <v>32894</v>
+      </c>
+      <c r="L120" s="16">
+        <v>25589</v>
+      </c>
+    </row>
+    <row r="121" spans="1:12">
+      <c r="A121" s="18">
+        <v>10774</v>
+      </c>
+      <c r="B121" s="16">
+        <v>25589</v>
+      </c>
+      <c r="C121" s="16">
+        <v>25589</v>
+      </c>
+      <c r="D121" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="E121" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="F121" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="G121" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="H121" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="I121" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="J121" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="K121" s="16">
+        <v>32894</v>
+      </c>
+      <c r="L121" s="16">
+        <v>25589</v>
+      </c>
+    </row>
+    <row r="122" spans="1:12">
+      <c r="A122" s="18">
+        <v>10781</v>
+      </c>
+      <c r="B122" s="16">
+        <v>25589</v>
+      </c>
+      <c r="C122" s="16">
+        <v>25589</v>
+      </c>
+      <c r="D122" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="E122" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="F122" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="G122" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="H122" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="I122" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="J122" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="K122" s="16">
+        <v>32894</v>
+      </c>
+      <c r="L122" s="16">
+        <v>25589</v>
+      </c>
+    </row>
+    <row r="123" spans="1:12">
+      <c r="A123" s="18">
+        <v>10587</v>
+      </c>
+      <c r="B123" s="16">
+        <v>25589</v>
+      </c>
+      <c r="C123" s="16">
+        <v>25589</v>
+      </c>
+      <c r="D123" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="E123" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="F123" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="G123" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="H123" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="I123" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="J123" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="K123" s="16">
+        <v>32894</v>
+      </c>
+      <c r="L123" s="16">
+        <v>25589</v>
+      </c>
+    </row>
+    <row r="124" spans="1:12">
+      <c r="A124" s="18">
+        <v>11036</v>
+      </c>
+      <c r="B124" s="16">
+        <v>25589</v>
+      </c>
+      <c r="C124" s="16">
+        <v>25589</v>
+      </c>
+      <c r="D124" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="E124" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="F124" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="G124" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="H124" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="I124" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="J124" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="K124" s="16">
+        <v>32894</v>
+      </c>
+      <c r="L124" s="16">
+        <v>25589</v>
+      </c>
+    </row>
+    <row r="125" spans="1:12">
+      <c r="A125" s="18">
+        <v>10936</v>
+      </c>
+      <c r="B125" s="16">
+        <v>25589</v>
+      </c>
+      <c r="C125" s="16">
+        <v>25589</v>
+      </c>
+      <c r="D125" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="E125" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="F125" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="G125" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="H125" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="I125" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="J125" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="K125" s="16">
+        <v>32894</v>
+      </c>
+      <c r="L125" s="16">
+        <v>25589</v>
+      </c>
+    </row>
+    <row r="126" spans="1:12">
+      <c r="A126" s="18">
+        <v>10834</v>
+      </c>
+      <c r="B126" s="16">
+        <v>25589</v>
+      </c>
+      <c r="C126" s="16">
+        <v>25589</v>
+      </c>
+      <c r="D126" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="E126" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="F126" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="G126" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="H126" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="I126" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="J126" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="K126" s="16">
+        <v>32894</v>
+      </c>
+      <c r="L126" s="16">
+        <v>25589</v>
+      </c>
+    </row>
+    <row r="127" spans="1:12">
+      <c r="A127" s="18">
+        <v>11133</v>
+      </c>
+      <c r="B127" s="16">
+        <v>25589</v>
+      </c>
+      <c r="C127" s="16">
+        <v>25589</v>
+      </c>
+      <c r="D127" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="E127" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="F127" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="G127" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="H127" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="I127" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="J127" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="K127" s="16">
+        <v>32894</v>
+      </c>
+      <c r="L127" s="16">
+        <v>25589</v>
+      </c>
+    </row>
+    <row r="128" spans="1:12">
+      <c r="A128" s="18">
+        <v>10758</v>
+      </c>
+      <c r="B128" s="16">
+        <v>25589</v>
+      </c>
+      <c r="C128" s="16">
+        <v>25589</v>
+      </c>
+      <c r="D128" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="E128" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="F128" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="G128" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="H128" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="I128" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="J128" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="K128" s="16">
+        <v>32894</v>
+      </c>
+      <c r="L128" s="16">
+        <v>25589</v>
+      </c>
+    </row>
+    <row r="129" spans="1:12">
+      <c r="A129" s="18">
+        <v>10919</v>
+      </c>
+      <c r="B129" s="16">
+        <v>25589</v>
+      </c>
+      <c r="C129" s="16">
+        <v>25589</v>
+      </c>
+      <c r="D129" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="E129" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="F129" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="G129" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="H129" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="I129" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="J129" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="K129" s="16">
+        <v>32894</v>
+      </c>
+      <c r="L129" s="16">
+        <v>25589</v>
+      </c>
+    </row>
+    <row r="130" spans="1:12">
+      <c r="A130" s="18">
+        <v>10361</v>
+      </c>
+      <c r="B130" s="16">
+        <v>25589</v>
+      </c>
+      <c r="C130" s="16">
+        <v>25589</v>
+      </c>
+      <c r="D130" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="E130" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="F130" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="G130" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="H130" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="I130" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="J130" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="K130" s="16">
+        <v>32894</v>
+      </c>
+      <c r="L130" s="16">
+        <v>25589</v>
+      </c>
+    </row>
+    <row r="131" spans="1:12">
+      <c r="A131" s="18">
+        <v>10056</v>
+      </c>
+      <c r="B131" s="16">
+        <v>25589</v>
+      </c>
+      <c r="C131" s="16">
+        <v>25589</v>
+      </c>
+      <c r="D131" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="E131" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="F131" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="G131" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="H131" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="I131" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="J131" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="K131" s="16">
+        <v>32894</v>
+      </c>
+      <c r="L131" s="16">
+        <v>25589</v>
+      </c>
+    </row>
+    <row r="132" spans="1:12">
+      <c r="A132" s="18">
+        <v>11076</v>
+      </c>
+      <c r="B132" s="16">
+        <v>25589</v>
+      </c>
+      <c r="C132" s="16">
+        <v>25589</v>
+      </c>
+      <c r="D132" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="E132" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="F132" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="G132" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="H132" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="I132" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="J132" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="K132" s="16">
+        <v>32894</v>
+      </c>
+      <c r="L132" s="16">
+        <v>25589</v>
+      </c>
+    </row>
+    <row r="133" spans="1:12">
+      <c r="A133" s="18">
+        <v>10297</v>
+      </c>
+      <c r="B133" s="16">
+        <v>25589</v>
+      </c>
+      <c r="C133" s="16">
+        <v>25589</v>
+      </c>
+      <c r="D133" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="E133" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="F133" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="G133" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="H133" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="I133" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="J133" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="K133" s="16">
+        <v>32894</v>
+      </c>
+      <c r="L133" s="16">
+        <v>25589</v>
+      </c>
+    </row>
+    <row r="134" spans="1:12">
+      <c r="A134" s="18">
+        <v>11154</v>
+      </c>
+      <c r="B134" s="16">
+        <v>25589</v>
+      </c>
+      <c r="C134" s="16">
+        <v>25589</v>
+      </c>
+      <c r="D134" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="E134" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="F134" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="G134" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="H134" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="I134" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="J134" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="K134" s="16">
+        <v>32894</v>
+      </c>
+      <c r="L134" s="16">
+        <v>25589</v>
+      </c>
+    </row>
+    <row r="135" spans="1:12">
+      <c r="A135" s="18">
+        <v>10776</v>
+      </c>
+      <c r="B135" s="16">
+        <v>25589</v>
+      </c>
+      <c r="C135" s="16">
+        <v>25589</v>
+      </c>
+      <c r="D135" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="E135" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="F135" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="G135" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="H135" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="I135" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="J135" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="K135" s="16">
+        <v>32894</v>
+      </c>
+      <c r="L135" s="16">
+        <v>25589</v>
+      </c>
+    </row>
+    <row r="136" spans="1:12">
+      <c r="A136" s="18">
+        <v>11080</v>
+      </c>
+      <c r="B136" s="16">
+        <v>25589</v>
+      </c>
+      <c r="C136" s="16">
+        <v>25589</v>
+      </c>
+      <c r="D136" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="E136" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="F136" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="G136" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="H136" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="I136" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="J136" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="K136" s="16">
+        <v>32894</v>
+      </c>
+      <c r="L136" s="16">
+        <v>25589</v>
+      </c>
+    </row>
+    <row r="137" spans="1:12">
+      <c r="A137" s="18">
+        <v>11210</v>
+      </c>
+      <c r="B137" s="16">
+        <v>25589</v>
+      </c>
+      <c r="C137" s="16">
+        <v>25589</v>
+      </c>
+      <c r="D137" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="E137" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="F137" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="G137" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="H137" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="I137" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="J137" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="K137" s="16">
+        <v>32894</v>
+      </c>
+      <c r="L137" s="16">
+        <v>25589</v>
+      </c>
+    </row>
+    <row r="138" spans="1:12">
+      <c r="A138" s="18">
+        <v>10930</v>
+      </c>
+      <c r="B138" s="16">
+        <v>25589</v>
+      </c>
+      <c r="C138" s="16">
+        <v>25589</v>
+      </c>
+      <c r="D138" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="E138" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="F138" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="G138" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="H138" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="I138" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="J138" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="K138" s="16">
+        <v>32894</v>
+      </c>
+      <c r="L138" s="16">
+        <v>25589</v>
+      </c>
+    </row>
+    <row r="139" spans="1:12">
+      <c r="A139" s="18">
+        <v>10532</v>
+      </c>
+      <c r="B139" s="16">
+        <v>25589</v>
+      </c>
+      <c r="C139" s="16">
+        <v>25589</v>
+      </c>
+      <c r="D139" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="E139" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="F139" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="G139" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="H139" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="I139" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="J139" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="K139" s="16">
+        <v>32894</v>
+      </c>
+      <c r="L139" s="16">
+        <v>25589</v>
+      </c>
+    </row>
+    <row r="140" spans="1:12">
+      <c r="A140" s="18">
+        <v>11220</v>
+      </c>
+      <c r="B140" s="16">
+        <v>25589</v>
+      </c>
+      <c r="C140" s="16">
+        <v>25589</v>
+      </c>
+      <c r="D140" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="E140" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="F140" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="G140" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="H140" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="I140" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="J140" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="K140" s="16">
+        <v>32894</v>
+      </c>
+      <c r="L140" s="16">
+        <v>25589</v>
+      </c>
+    </row>
+    <row r="141" spans="1:12">
+      <c r="A141" s="18">
+        <v>10399</v>
+      </c>
+      <c r="B141" s="16">
+        <v>25589</v>
+      </c>
+      <c r="C141" s="16">
+        <v>25589</v>
+      </c>
+      <c r="D141" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="E141" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="F141" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="G141" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="H141" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="I141" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="J141" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="K141" s="16">
+        <v>32894</v>
+      </c>
+      <c r="L141" s="16">
+        <v>25589</v>
+      </c>
+    </row>
+    <row r="142" spans="1:12">
+      <c r="A142" s="18">
+        <v>11001</v>
+      </c>
+      <c r="B142" s="16">
+        <v>25589</v>
+      </c>
+      <c r="C142" s="16">
+        <v>25589</v>
+      </c>
+      <c r="D142" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="E142" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="F142" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="G142" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="H142" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="I142" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="J142" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="K142" s="16">
+        <v>32894</v>
+      </c>
+      <c r="L142" s="16">
+        <v>25589</v>
+      </c>
+    </row>
+    <row r="143" spans="1:12">
+      <c r="A143" s="18">
+        <v>10588</v>
+      </c>
+      <c r="B143" s="16">
+        <v>25589</v>
+      </c>
+      <c r="C143" s="16">
+        <v>25589</v>
+      </c>
+      <c r="D143" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="E143" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="F143" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="G143" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="H143" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="I143" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="J143" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="K143" s="16">
+        <v>32894</v>
+      </c>
+      <c r="L143" s="16">
+        <v>25589</v>
+      </c>
+    </row>
+    <row r="144" spans="1:12">
+      <c r="A144" s="18">
+        <v>11252</v>
+      </c>
+      <c r="B144" s="16">
+        <v>25589</v>
+      </c>
+      <c r="C144" s="16">
+        <v>25589</v>
+      </c>
+      <c r="D144" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="E144" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="F144" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="G144" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="H144" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="I144" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="J144" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="K144" s="16">
+        <v>32894</v>
+      </c>
+      <c r="L144" s="16">
+        <v>25589</v>
+      </c>
+    </row>
+    <row r="145" spans="1:12">
+      <c r="A145" s="18">
+        <v>11124</v>
+      </c>
+      <c r="B145" s="16">
+        <v>25589</v>
+      </c>
+      <c r="C145" s="16">
+        <v>25589</v>
+      </c>
+      <c r="D145" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="E145" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="F145" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="G145" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="H145" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="I145" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="J145" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="K145" s="16">
+        <v>32894</v>
+      </c>
+      <c r="L145" s="16">
+        <v>25589</v>
+      </c>
+    </row>
+    <row r="146" spans="1:12">
+      <c r="A146" s="18">
+        <v>10104</v>
+      </c>
+      <c r="B146" s="16">
+        <v>25589</v>
+      </c>
+      <c r="C146" s="16">
+        <v>25589</v>
+      </c>
+      <c r="D146" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="E146" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="F146" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="G146" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="H146" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="I146" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="J146" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="K146" s="16">
+        <v>32894</v>
+      </c>
+      <c r="L146" s="16">
+        <v>25589</v>
+      </c>
+    </row>
+    <row r="147" spans="1:12">
+      <c r="A147" s="18">
+        <v>11020</v>
+      </c>
+      <c r="B147" s="16">
+        <v>25589</v>
+      </c>
+      <c r="C147" s="16">
+        <v>25589</v>
+      </c>
+      <c r="D147" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="E147" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="F147" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="G147" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="H147" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="I147" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="J147" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="K147" s="16">
+        <v>32894</v>
+      </c>
+      <c r="L147" s="16">
+        <v>25589</v>
+      </c>
+    </row>
+    <row r="148" spans="1:12">
+      <c r="A148" s="18">
+        <v>1008</v>
+      </c>
+      <c r="B148" s="16">
+        <v>25589</v>
+      </c>
+      <c r="C148" s="16">
+        <v>25589</v>
+      </c>
+      <c r="D148" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="E148" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="F148" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="G148" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="H148" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="I148" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="J148" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="K148" s="16">
+        <v>32894</v>
+      </c>
+      <c r="L148" s="16">
+        <v>25589</v>
+      </c>
+    </row>
+    <row r="149" spans="1:12">
+      <c r="A149" s="18">
+        <v>10951</v>
+      </c>
+      <c r="B149" s="16">
+        <v>25589</v>
+      </c>
+      <c r="C149" s="16">
+        <v>25589</v>
+      </c>
+      <c r="D149" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="E149" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="F149" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="G149" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="H149" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="I149" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="J149" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="K149" s="16">
+        <v>32894</v>
+      </c>
+      <c r="L149" s="16">
+        <v>25589</v>
+      </c>
+    </row>
+    <row r="150" spans="1:12">
+      <c r="A150" s="18">
+        <v>10800</v>
+      </c>
+      <c r="B150" s="16">
+        <v>25589</v>
+      </c>
+      <c r="C150" s="16">
+        <v>25589</v>
+      </c>
+      <c r="D150" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="E150" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="F150" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="G150" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="H150" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="I150" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="J150" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="K150" s="16">
+        <v>32894</v>
+      </c>
+      <c r="L150" s="16">
+        <v>25589</v>
+      </c>
+    </row>
+    <row r="151" spans="1:12">
+      <c r="A151" s="18">
+        <v>11012</v>
+      </c>
+      <c r="B151" s="16">
+        <v>25589</v>
+      </c>
+      <c r="C151" s="16">
+        <v>25589</v>
+      </c>
+      <c r="D151" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="E151" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="F151" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="G151" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="H151" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="I151" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="J151" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="K151" s="16">
+        <v>32894</v>
+      </c>
+      <c r="L151" s="16">
+        <v>25589</v>
+      </c>
+    </row>
+    <row r="152" spans="1:12">
+      <c r="A152" s="18">
+        <v>10386</v>
+      </c>
+      <c r="B152" s="16">
+        <v>25589</v>
+      </c>
+      <c r="C152" s="16">
+        <v>25589</v>
+      </c>
+      <c r="D152" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="E152" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="F152" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="G152" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="H152" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="I152" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="J152" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="K152" s="16">
+        <v>32894</v>
+      </c>
+      <c r="L152" s="16">
+        <v>25589</v>
+      </c>
+    </row>
+    <row r="153" spans="1:12">
+      <c r="A153" s="18">
+        <v>10437</v>
+      </c>
+      <c r="B153" s="16">
+        <v>25589</v>
+      </c>
+      <c r="C153" s="16">
+        <v>25589</v>
+      </c>
+      <c r="D153" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="E153" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="F153" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="G153" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="H153" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="I153" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="J153" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="K153" s="16">
+        <v>32894</v>
+      </c>
+      <c r="L153" s="16">
+        <v>25589</v>
+      </c>
+    </row>
+    <row r="154" spans="1:12">
+      <c r="A154" s="18">
+        <v>11145</v>
+      </c>
+      <c r="B154" s="16">
+        <v>25589</v>
+      </c>
+      <c r="C154" s="16">
+        <v>25589</v>
+      </c>
+      <c r="D154" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="E154" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="F154" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="G154" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="H154" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="I154" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="J154" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="K154" s="16">
+        <v>32894</v>
+      </c>
+      <c r="L154" s="16">
+        <v>25589</v>
+      </c>
+    </row>
+    <row r="155" spans="1:12">
+      <c r="A155" s="18">
+        <v>11005</v>
+      </c>
+      <c r="B155" s="16">
+        <v>25589</v>
+      </c>
+      <c r="C155" s="16">
+        <v>25589</v>
+      </c>
+      <c r="D155" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="E155" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="F155" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="G155" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="H155" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="I155" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="J155" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="K155" s="16">
+        <v>32894</v>
+      </c>
+      <c r="L155" s="16">
+        <v>25589</v>
+      </c>
+    </row>
+    <row r="156" spans="1:12">
+      <c r="A156" s="18">
+        <v>10433</v>
+      </c>
+      <c r="B156" s="16">
+        <v>25589</v>
+      </c>
+      <c r="C156" s="16">
+        <v>25589</v>
+      </c>
+      <c r="D156" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="E156" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="F156" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="G156" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="H156" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="I156" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="J156" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="K156" s="16">
+        <v>32894</v>
+      </c>
+      <c r="L156" s="16">
+        <v>25589</v>
+      </c>
+    </row>
+    <row r="157" spans="1:12">
+      <c r="A157" s="18">
+        <v>10456</v>
+      </c>
+      <c r="B157" s="16">
+        <v>25589</v>
+      </c>
+      <c r="C157" s="16">
+        <v>25589</v>
+      </c>
+      <c r="D157" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="E157" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="F157" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="G157" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="H157" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="I157" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="J157" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="K157" s="16">
+        <v>32894</v>
+      </c>
+      <c r="L157" s="16">
+        <v>25589</v>
+      </c>
+    </row>
+    <row r="158" spans="1:12">
+      <c r="A158" s="18">
+        <v>1413</v>
+      </c>
+      <c r="B158" s="16">
+        <v>25589</v>
+      </c>
+      <c r="C158" s="16">
+        <v>25589</v>
+      </c>
+      <c r="D158" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="E158" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="F158" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="G158" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="H158" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="I158" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="J158" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="K158" s="16">
+        <v>32894</v>
+      </c>
+      <c r="L158" s="16">
+        <v>25589</v>
+      </c>
+    </row>
+    <row r="159" spans="1:12">
+      <c r="A159" s="18">
+        <v>10967</v>
+      </c>
+      <c r="B159" s="16">
+        <v>25589</v>
+      </c>
+      <c r="C159" s="16">
+        <v>25589</v>
+      </c>
+      <c r="D159" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="E159" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="F159" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="G159" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="H159" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="I159" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="J159" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="K159" s="16">
+        <v>32894</v>
+      </c>
+      <c r="L159" s="16">
+        <v>25589</v>
+      </c>
+    </row>
+    <row r="160" spans="1:12">
+      <c r="A160" s="18">
+        <v>11153</v>
+      </c>
+      <c r="B160" s="16">
+        <v>25589</v>
+      </c>
+      <c r="C160" s="16">
+        <v>25589</v>
+      </c>
+      <c r="D160" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="E160" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="F160" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="G160" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="H160" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="I160" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="J160" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="K160" s="16">
+        <v>32894</v>
+      </c>
+      <c r="L160" s="16">
+        <v>25589</v>
+      </c>
+    </row>
+    <row r="161" spans="1:12">
+      <c r="A161" s="18">
+        <v>11092</v>
+      </c>
+      <c r="B161" s="16">
+        <v>25589</v>
+      </c>
+      <c r="C161" s="16">
+        <v>25589</v>
+      </c>
+      <c r="D161" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="E161" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="F161" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="G161" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="H161" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="I161" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="J161" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="K161" s="16">
+        <v>32894</v>
+      </c>
+      <c r="L161" s="16">
+        <v>25589</v>
+      </c>
+    </row>
+    <row r="162" spans="1:12">
+      <c r="A162" s="18">
+        <v>10611</v>
+      </c>
+      <c r="B162" s="16">
+        <v>25589</v>
+      </c>
+      <c r="C162" s="16">
+        <v>25589</v>
+      </c>
+      <c r="D162" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="E162" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="F162" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="G162" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="H162" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="I162" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="J162" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="K162" s="16">
+        <v>32894</v>
+      </c>
+      <c r="L162" s="16">
+        <v>25589</v>
+      </c>
+    </row>
+    <row r="163" spans="1:12">
+      <c r="A163" s="18">
+        <v>11075</v>
+      </c>
+      <c r="B163" s="16">
+        <v>25589</v>
+      </c>
+      <c r="C163" s="16">
+        <v>25589</v>
+      </c>
+      <c r="D163" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="E163" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="F163" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="G163" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="H163" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="I163" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="J163" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="K163" s="16">
+        <v>32894</v>
+      </c>
+      <c r="L163" s="16">
+        <v>25589</v>
+      </c>
+    </row>
+    <row r="164" spans="1:12">
+      <c r="A164" s="18">
+        <v>10509</v>
+      </c>
+      <c r="B164" s="16">
+        <v>25589</v>
+      </c>
+      <c r="C164" s="16">
+        <v>25589</v>
+      </c>
+      <c r="D164" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="E164" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="F164" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="G164" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="H164" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="I164" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="J164" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="K164" s="16">
+        <v>32894</v>
+      </c>
+      <c r="L164" s="16">
+        <v>25589</v>
+      </c>
+    </row>
+    <row r="165" spans="1:12">
+      <c r="A165" s="18">
+        <v>10454</v>
+      </c>
+      <c r="B165" s="16">
+        <v>25589</v>
+      </c>
+      <c r="C165" s="16">
+        <v>25589</v>
+      </c>
+      <c r="D165" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="E165" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="F165" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="G165" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="H165" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="I165" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="J165" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="K165" s="16">
+        <v>32894</v>
+      </c>
+      <c r="L165" s="16">
+        <v>25589</v>
+      </c>
+    </row>
+    <row r="166" spans="1:12">
+      <c r="A166" s="18">
+        <v>10721</v>
+      </c>
+      <c r="B166" s="16">
+        <v>25589</v>
+      </c>
+      <c r="C166" s="16">
+        <v>25589</v>
+      </c>
+      <c r="D166" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="E166" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="F166" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="G166" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="H166" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="I166" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="J166" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="K166" s="16">
+        <v>32894</v>
+      </c>
+      <c r="L166" s="16">
+        <v>25589</v>
+      </c>
+    </row>
+    <row r="167" spans="1:12">
+      <c r="A167" s="18">
+        <v>10508</v>
+      </c>
+      <c r="B167" s="16">
+        <v>25589</v>
+      </c>
+      <c r="C167" s="16">
+        <v>25589</v>
+      </c>
+      <c r="D167" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="E167" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="F167" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="G167" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="H167" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="I167" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="J167" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="K167" s="16">
+        <v>32894</v>
+      </c>
+      <c r="L167" s="16">
+        <v>25589</v>
+      </c>
+    </row>
+    <row r="168" spans="1:12">
+      <c r="A168" s="18">
+        <v>10117</v>
+      </c>
+      <c r="B168" s="16">
+        <v>25589</v>
+      </c>
+      <c r="C168" s="16">
+        <v>25589</v>
+      </c>
+      <c r="D168" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="E168" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="F168" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="G168" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="H168" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="I168" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="J168" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="K168" s="16">
+        <v>32894</v>
+      </c>
+      <c r="L168" s="16">
+        <v>25589</v>
+      </c>
+    </row>
+    <row r="169" spans="1:12">
+      <c r="A169" s="18">
+        <v>10328</v>
+      </c>
+      <c r="B169" s="16">
+        <v>25589</v>
+      </c>
+      <c r="C169" s="16">
+        <v>25589</v>
+      </c>
+      <c r="D169" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="E169" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="F169" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="G169" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="H169" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="I169" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="J169" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="K169" s="16">
+        <v>32894</v>
+      </c>
+      <c r="L169" s="16">
+        <v>25589</v>
+      </c>
+    </row>
+    <row r="170" spans="1:12">
+      <c r="A170" s="18">
+        <v>10945</v>
+      </c>
+      <c r="B170" s="16">
+        <v>25589</v>
+      </c>
+      <c r="C170" s="16">
+        <v>25589</v>
+      </c>
+      <c r="D170" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="E170" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="F170" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="G170" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="H170" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="I170" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="J170" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="K170" s="16">
+        <v>32894</v>
+      </c>
+      <c r="L170" s="16">
+        <v>25589</v>
+      </c>
+    </row>
+    <row r="171" spans="1:12">
+      <c r="A171" s="18">
+        <v>10378</v>
+      </c>
+      <c r="B171" s="16">
+        <v>25589</v>
+      </c>
+      <c r="C171" s="16">
+        <v>25589</v>
+      </c>
+      <c r="D171" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="E171" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="F171" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="G171" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="H171" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="I171" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="J171" s="15" t="s">
+        <v>100</v>
+      </c>
+      <c r="K171" s="16">
+        <v>32894</v>
+      </c>
+      <c r="L171" s="16">
+        <v>25589</v>
+      </c>
+    </row>
+    <row r="172" spans="1:12">
+      <c r="A172" s="18">
+        <v>10833</v>
+      </c>
+      <c r="B172" s="16">
+        <v>25589</v>
+      </c>
+      <c r="C172" s="16">
+        <v>25589</v>
+      </c>
+      <c r="D172" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="E172" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="F172" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="G172" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="H172" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="I172" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="J172" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="K172" s="16">
+        <v>32894</v>
+      </c>
+      <c r="L172" s="16">
+        <v>25589</v>
+      </c>
+    </row>
+    <row r="173" spans="1:12">
+      <c r="A173" s="18">
+        <v>11094</v>
+      </c>
+      <c r="B173" s="16">
+        <v>25589</v>
+      </c>
+      <c r="C173" s="16">
+        <v>25589</v>
+      </c>
+      <c r="D173" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="E173" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="F173" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="G173" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="H173" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="I173" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="J173" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="K173" s="16">
+        <v>32894</v>
+      </c>
+      <c r="L173" s="16">
+        <v>25589</v>
+      </c>
+    </row>
+    <row r="174" spans="1:12">
+      <c r="A174" s="18">
+        <v>1106</v>
+      </c>
+      <c r="B174" s="16">
+        <v>25589</v>
+      </c>
+      <c r="C174" s="16">
+        <v>25589</v>
+      </c>
+      <c r="D174" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="E174" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="F174" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="G174" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="H174" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="I174" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="J174" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="K174" s="16">
+        <v>32894</v>
+      </c>
+      <c r="L174" s="16">
+        <v>25589</v>
+      </c>
+    </row>
+    <row r="175" spans="1:12">
+      <c r="A175" s="18">
+        <v>10693</v>
+      </c>
+      <c r="B175" s="16">
+        <v>25589</v>
+      </c>
+      <c r="C175" s="16">
+        <v>25589</v>
+      </c>
+      <c r="D175" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="E175" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="F175" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="G175" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="H175" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="I175" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="J175" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="K175" s="16">
+        <v>32894</v>
+      </c>
+      <c r="L175" s="16">
+        <v>25589</v>
+      </c>
+    </row>
+    <row r="176" spans="1:12">
+      <c r="A176" s="18">
+        <v>10981</v>
+      </c>
+      <c r="B176" s="16">
+        <v>25589</v>
+      </c>
+      <c r="C176" s="16">
+        <v>25589</v>
+      </c>
+      <c r="D176" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="E176" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="F176" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="G176" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="H176" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="I176" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="J176" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="K176" s="16">
+        <v>32894</v>
+      </c>
+      <c r="L176" s="16">
+        <v>25589</v>
+      </c>
+    </row>
+    <row r="177" spans="1:12">
+      <c r="A177" s="18">
+        <v>10535</v>
+      </c>
+      <c r="B177" s="16">
+        <v>25589</v>
+      </c>
+      <c r="C177" s="16">
+        <v>25589</v>
+      </c>
+      <c r="D177" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="E177" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="F177" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="G177" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="H177" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="I177" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="J177" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="K177" s="16">
+        <v>32894</v>
+      </c>
+      <c r="L177" s="16">
+        <v>25589</v>
+      </c>
+    </row>
+    <row r="178" spans="1:12">
+      <c r="A178" s="18">
+        <v>11136</v>
+      </c>
+      <c r="B178" s="16">
+        <v>25589</v>
+      </c>
+      <c r="C178" s="16">
+        <v>25589</v>
+      </c>
+      <c r="D178" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="E178" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="F178" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="G178" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="H178" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="I178" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="J178" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="K178" s="16">
+        <v>32894</v>
+      </c>
+      <c r="L178" s="16">
+        <v>25589</v>
+      </c>
+    </row>
+    <row r="179" spans="1:12">
+      <c r="A179" s="18">
+        <v>10794</v>
+      </c>
+      <c r="B179" s="16">
+        <v>25589</v>
+      </c>
+      <c r="C179" s="16">
+        <v>25589</v>
+      </c>
+      <c r="D179" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="E179" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="F179" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="G179" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="H179" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="I179" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="J179" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="K179" s="16">
+        <v>32894</v>
+      </c>
+      <c r="L179" s="16">
+        <v>25589</v>
+      </c>
+    </row>
+    <row r="180" spans="1:12">
+      <c r="A180" s="18">
+        <v>11086</v>
+      </c>
+      <c r="B180" s="16">
+        <v>25589</v>
+      </c>
+      <c r="C180" s="16">
+        <v>25589</v>
+      </c>
+      <c r="D180" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="E180" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="F180" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="G180" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="H180" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="I180" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="J180" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="K180" s="16">
+        <v>32894</v>
+      </c>
+      <c r="L180" s="16">
+        <v>25589</v>
+      </c>
+    </row>
+    <row r="181" spans="1:12">
+      <c r="A181" s="18">
+        <v>10935</v>
+      </c>
+      <c r="B181" s="16">
+        <v>25589</v>
+      </c>
+      <c r="C181" s="16">
+        <v>25589</v>
+      </c>
+      <c r="D181" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="E181" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="F181" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="G181" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="H181" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="I181" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="J181" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="K181" s="16">
+        <v>32894</v>
+      </c>
+      <c r="L181" s="16">
+        <v>25589</v>
+      </c>
+    </row>
+    <row r="182" spans="1:12">
+      <c r="A182" s="18">
+        <v>10810</v>
+      </c>
+      <c r="B182" s="16">
+        <v>25589</v>
+      </c>
+      <c r="C182" s="16">
+        <v>25589</v>
+      </c>
+      <c r="D182" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="E182" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="F182" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="G182" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="H182" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="I182" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="J182" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="K182" s="16">
+        <v>32894</v>
+      </c>
+      <c r="L182" s="16">
+        <v>25589</v>
+      </c>
+    </row>
+    <row r="183" spans="1:12">
+      <c r="A183" s="18">
+        <v>11099</v>
+      </c>
+      <c r="B183" s="16">
+        <v>25589</v>
+      </c>
+      <c r="C183" s="16">
+        <v>25589</v>
+      </c>
+      <c r="D183" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="E183" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="F183" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="G183" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="H183" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="I183" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="J183" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="K183" s="16">
+        <v>32894</v>
+      </c>
+      <c r="L183" s="16">
+        <v>25589</v>
+      </c>
+    </row>
+    <row r="184" spans="1:12">
+      <c r="A184" s="18">
+        <v>10836</v>
+      </c>
+      <c r="B184" s="16">
+        <v>25589</v>
+      </c>
+      <c r="C184" s="16">
+        <v>25589</v>
+      </c>
+      <c r="D184" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="E184" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="F184" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="G184" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="H184" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="I184" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="J184" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="K184" s="16">
+        <v>32894</v>
+      </c>
+      <c r="L184" s="16">
+        <v>25589</v>
+      </c>
+    </row>
+    <row r="185" spans="1:12">
+      <c r="A185" s="18">
+        <v>10905</v>
+      </c>
+      <c r="B185" s="16">
+        <v>25589</v>
+      </c>
+      <c r="C185" s="16">
+        <v>25589</v>
+      </c>
+      <c r="D185" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="E185" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="F185" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="G185" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="H185" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="I185" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="J185" s="15" t="s">
+        <v>114</v>
+      </c>
+      <c r="K185" s="16">
+        <v>32894</v>
+      </c>
+      <c r="L185" s="16">
+        <v>25589</v>
+      </c>
+    </row>
+    <row r="186" spans="1:12">
+      <c r="A186" s="18">
+        <v>10966</v>
+      </c>
+      <c r="B186" s="16">
+        <v>25589</v>
+      </c>
+      <c r="C186" s="16">
+        <v>25589</v>
+      </c>
+      <c r="D186" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="E186" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="F186" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="G186" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="H186" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="I186" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="J186" s="15" t="s">
+        <v>115</v>
+      </c>
+      <c r="K186" s="16">
+        <v>32894</v>
+      </c>
+      <c r="L186" s="16">
+        <v>25589</v>
+      </c>
+    </row>
+    <row r="187" spans="1:12">
+      <c r="A187" s="18">
+        <v>10608</v>
+      </c>
+      <c r="B187" s="16">
+        <v>25589</v>
+      </c>
+      <c r="C187" s="16">
+        <v>25589</v>
+      </c>
+      <c r="D187" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="E187" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="F187" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="G187" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="H187" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="I187" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="J187" s="15" t="s">
+        <v>116</v>
+      </c>
+      <c r="K187" s="16">
+        <v>32894</v>
+      </c>
+      <c r="L187" s="16">
+        <v>25589</v>
+      </c>
+    </row>
+    <row r="188" spans="1:12">
+      <c r="A188" s="18">
+        <v>11151</v>
+      </c>
+      <c r="B188" s="16">
+        <v>25589</v>
+      </c>
+      <c r="C188" s="16">
+        <v>25589</v>
+      </c>
+      <c r="D188" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="E188" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="F188" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="G188" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="H188" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="I188" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="J188" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="K188" s="16">
+        <v>32894</v>
+      </c>
+      <c r="L188" s="16">
+        <v>25589</v>
+      </c>
+    </row>
+    <row r="189" spans="1:12">
+      <c r="A189" s="18">
+        <v>10475</v>
+      </c>
+      <c r="B189" s="16">
+        <v>25589</v>
+      </c>
+      <c r="C189" s="16">
+        <v>25589</v>
+      </c>
+      <c r="D189" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="E189" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="F189" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="G189" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="H189" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="I189" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="J189" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="K189" s="16">
+        <v>32894</v>
+      </c>
+      <c r="L189" s="16">
+        <v>25589</v>
+      </c>
+    </row>
+    <row r="190" spans="1:12">
+      <c r="A190" s="18">
+        <v>1492</v>
+      </c>
+      <c r="B190" s="16">
+        <v>25589</v>
+      </c>
+      <c r="C190" s="16">
+        <v>25589</v>
+      </c>
+      <c r="D190" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="E190" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="F190" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="G190" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="H190" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="I190" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="J190" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="K190" s="16">
+        <v>32894</v>
+      </c>
+      <c r="L190" s="16">
+        <v>25589</v>
+      </c>
+    </row>
+    <row r="191" spans="1:12">
+      <c r="A191" s="18">
+        <v>1478</v>
+      </c>
+      <c r="B191" s="16">
+        <v>25589</v>
+      </c>
+      <c r="C191" s="16">
+        <v>25589</v>
+      </c>
+      <c r="D191" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="E191" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="F191" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="G191" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="H191" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="I191" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="J191" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="K191" s="16">
+        <v>32894</v>
+      </c>
+      <c r="L191" s="16">
+        <v>25589</v>
+      </c>
+    </row>
+    <row r="192" spans="1:12">
+      <c r="A192" s="18">
+        <v>10948</v>
+      </c>
+      <c r="B192" s="16">
+        <v>25589</v>
+      </c>
+      <c r="C192" s="16">
+        <v>25589</v>
+      </c>
+      <c r="D192" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="E192" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="F192" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="G192" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="H192" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="I192" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="J192" s="15" t="s">
+        <v>121</v>
+      </c>
+      <c r="K192" s="16">
+        <v>32894</v>
+      </c>
+      <c r="L192" s="16">
+        <v>25589</v>
+      </c>
+    </row>
+    <row r="193" spans="1:12">
+      <c r="A193" s="18">
+        <v>10964</v>
+      </c>
+      <c r="B193" s="16">
+        <v>25589</v>
+      </c>
+      <c r="C193" s="16">
+        <v>25589</v>
+      </c>
+      <c r="D193" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="E193" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="F193" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="G193" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="H193" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="I193" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="J193" s="15" t="s">
+        <v>122</v>
+      </c>
+      <c r="K193" s="16">
+        <v>32894</v>
+      </c>
+      <c r="L193" s="16">
+        <v>25589</v>
+      </c>
+    </row>
+    <row r="194" spans="1:12">
+      <c r="A194" s="18">
+        <v>10617</v>
+      </c>
+      <c r="B194" s="16">
+        <v>25589</v>
+      </c>
+      <c r="C194" s="16">
+        <v>25589</v>
+      </c>
+      <c r="D194" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="E194" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="F194" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="G194" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="H194" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="I194" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="J194" s="15" t="s">
+        <v>123</v>
+      </c>
+      <c r="K194" s="16">
+        <v>32894</v>
+      </c>
+      <c r="L194" s="16">
+        <v>25589</v>
+      </c>
+    </row>
+    <row r="195" spans="1:12">
+      <c r="A195" s="18">
+        <v>10681</v>
+      </c>
+      <c r="B195" s="16">
+        <v>25589</v>
+      </c>
+      <c r="C195" s="16">
+        <v>25589</v>
+      </c>
+      <c r="D195" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="E195" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="F195" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="G195" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="H195" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="I195" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="J195" s="15" t="s">
+        <v>124</v>
+      </c>
+      <c r="K195" s="16">
+        <v>32894</v>
+      </c>
+      <c r="L195" s="16">
+        <v>25589</v>
+      </c>
+    </row>
+    <row r="196" spans="1:12">
+      <c r="A196" s="18">
+        <v>10425</v>
+      </c>
+      <c r="B196" s="16">
+        <v>25589</v>
+      </c>
+      <c r="C196" s="16">
+        <v>25589</v>
+      </c>
+      <c r="D196" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="E196" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="F196" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="G196" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="H196" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="I196" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="J196" s="15" t="s">
+        <v>125</v>
+      </c>
+      <c r="K196" s="16">
+        <v>32894</v>
+      </c>
+      <c r="L196" s="16">
+        <v>25589</v>
+      </c>
+    </row>
+    <row r="197" spans="1:12">
+      <c r="A197" s="18">
+        <v>10630</v>
+      </c>
+      <c r="B197" s="16">
+        <v>25589</v>
+      </c>
+      <c r="C197" s="16">
+        <v>25589</v>
+      </c>
+      <c r="D197" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="E197" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="F197" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="G197" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="H197" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="I197" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="J197" s="15" t="s">
+        <v>126</v>
+      </c>
+      <c r="K197" s="16">
+        <v>32894</v>
+      </c>
+      <c r="L197" s="16">
+        <v>25589</v>
+      </c>
+    </row>
+    <row r="198" spans="1:12">
+      <c r="A198" s="18">
+        <v>10943</v>
+      </c>
+      <c r="B198" s="16">
+        <v>25589</v>
+      </c>
+      <c r="C198" s="16">
+        <v>25589</v>
+      </c>
+      <c r="D198" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="E198" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="F198" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="G198" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="H198" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="I198" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="J198" s="15" t="s">
+        <v>127</v>
+      </c>
+      <c r="K198" s="16">
+        <v>32894</v>
+      </c>
+      <c r="L198" s="16">
+        <v>25589</v>
+      </c>
+    </row>
+    <row r="199" spans="1:12">
+      <c r="A199" s="18">
+        <v>1494</v>
+      </c>
+      <c r="B199" s="16">
+        <v>25589</v>
+      </c>
+      <c r="C199" s="16">
+        <v>25589</v>
+      </c>
+      <c r="D199" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="E199" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="F199" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="G199" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="H199" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="I199" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="J199" s="15" t="s">
+        <v>128</v>
+      </c>
+      <c r="K199" s="16">
+        <v>32894</v>
+      </c>
+      <c r="L199" s="16">
+        <v>25589</v>
+      </c>
+    </row>
+    <row r="200" spans="1:12">
+      <c r="A200" s="18">
+        <v>829</v>
+      </c>
+      <c r="B200" s="16">
+        <v>25589</v>
+      </c>
+      <c r="C200" s="16">
+        <v>25589</v>
+      </c>
+      <c r="D200" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="E200" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="F200" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="G200" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="H200" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="I200" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="J200" s="15" t="s">
+        <v>129</v>
+      </c>
+      <c r="K200" s="16">
+        <v>32894</v>
+      </c>
+      <c r="L200" s="16">
+        <v>25589</v>
+      </c>
+    </row>
+    <row r="201" spans="1:12">
+      <c r="A201" s="18">
+        <v>10755</v>
+      </c>
+      <c r="B201" s="16">
+        <v>25589</v>
+      </c>
+      <c r="C201" s="16">
+        <v>25589</v>
+      </c>
+      <c r="D201" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="E201" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="F201" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="G201" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="H201" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="I201" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="J201" s="15" t="s">
+        <v>130</v>
+      </c>
+      <c r="K201" s="16">
+        <v>32894</v>
+      </c>
+      <c r="L201" s="16">
+        <v>25589</v>
+      </c>
+    </row>
+    <row r="202" spans="1:12">
+      <c r="A202" s="18">
+        <v>11062</v>
+      </c>
+      <c r="B202" s="16">
+        <v>25589</v>
+      </c>
+      <c r="C202" s="16">
+        <v>25589</v>
+      </c>
+      <c r="D202" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="E202" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="F202" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="G202" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="H202" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="I202" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="J202" s="15" t="s">
+        <v>131</v>
+      </c>
+      <c r="K202" s="16">
+        <v>32894</v>
+      </c>
+      <c r="L202" s="16">
+        <v>25589</v>
+      </c>
+    </row>
+    <row r="203" spans="1:12">
+      <c r="A203" s="18">
+        <v>10941</v>
+      </c>
+      <c r="B203" s="16">
+        <v>25589</v>
+      </c>
+      <c r="C203" s="16">
+        <v>25589</v>
+      </c>
+      <c r="D203" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="E203" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="F203" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="G203" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="H203" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="I203" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="J203" s="15" t="s">
+        <v>132</v>
+      </c>
+      <c r="K203" s="16">
+        <v>32894</v>
+      </c>
+      <c r="L203" s="16">
+        <v>25589</v>
+      </c>
+    </row>
+    <row r="204" spans="1:12">
+      <c r="A204" s="18">
+        <v>11141</v>
+      </c>
+      <c r="B204" s="16">
+        <v>25589</v>
+      </c>
+      <c r="C204" s="16">
+        <v>25589</v>
+      </c>
+      <c r="D204" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="E204" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="F204" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="G204" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="H204" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="I204" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="J204" s="15" t="s">
+        <v>133</v>
+      </c>
+      <c r="K204" s="16">
+        <v>32894</v>
+      </c>
+      <c r="L204" s="16">
+        <v>25589</v>
+      </c>
+    </row>
+    <row r="205" spans="1:12">
+      <c r="A205" s="18">
+        <v>1592</v>
+      </c>
+      <c r="B205" s="16">
+        <v>25589</v>
+      </c>
+      <c r="C205" s="16">
+        <v>25589</v>
+      </c>
+      <c r="D205" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="E205" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="F205" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="G205" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="H205" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="I205" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="J205" s="15" t="s">
+        <v>134</v>
+      </c>
+      <c r="K205" s="16">
+        <v>32894</v>
+      </c>
+      <c r="L205" s="16">
+        <v>25589</v>
+      </c>
+    </row>
+    <row r="206" spans="1:12">
+      <c r="A206" s="18">
+        <v>10085</v>
+      </c>
+      <c r="B206" s="16">
+        <v>25589</v>
+      </c>
+      <c r="C206" s="16">
+        <v>25589</v>
+      </c>
+      <c r="D206" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="E206" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="F206" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="G206" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="H206" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="I206" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="J206" s="15" t="s">
+        <v>135</v>
+      </c>
+      <c r="K206" s="16">
+        <v>32894</v>
+      </c>
+      <c r="L206" s="16">
+        <v>25589</v>
+      </c>
+    </row>
+    <row r="207" spans="1:12">
+      <c r="A207" s="18">
+        <v>10972</v>
+      </c>
+      <c r="B207" s="16">
+        <v>25589</v>
+      </c>
+      <c r="C207" s="16">
+        <v>25589</v>
+      </c>
+      <c r="D207" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="E207" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="F207" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="G207" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="H207" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="I207" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="J207" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="K207" s="16">
+        <v>32894</v>
+      </c>
+      <c r="L207" s="16">
+        <v>25589</v>
+      </c>
+    </row>
+    <row r="208" spans="1:12">
+      <c r="A208" s="18">
+        <v>11137</v>
+      </c>
+      <c r="B208" s="16">
+        <v>25589</v>
+      </c>
+      <c r="C208" s="16">
+        <v>25589</v>
+      </c>
+      <c r="D208" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="E208" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="F208" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="G208" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="H208" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="I208" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="J208" s="15" t="s">
+        <v>137</v>
+      </c>
+      <c r="K208" s="16">
+        <v>32894</v>
+      </c>
+      <c r="L208" s="16">
+        <v>25589</v>
+      </c>
+    </row>
+    <row r="209" spans="1:12">
+      <c r="A209" s="18">
+        <v>11120</v>
+      </c>
+      <c r="B209" s="16">
+        <v>25589</v>
+      </c>
+      <c r="C209" s="16">
+        <v>25589</v>
+      </c>
+      <c r="D209" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="E209" s="15" t="s">
+        <v>139</v>
+      </c>
+      <c r="F209" s="15" t="s">
+        <v>138</v>
+      </c>
+      <c r="G209" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="H209" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="I209" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="J209" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="K209" s="16">
+        <v>32894</v>
+      </c>
+      <c r="L209" s="16">
+        <v>25589</v>
+      </c>
+    </row>
+    <row r="210" spans="1:12">
+      <c r="A210" s="18">
+        <v>10497</v>
+      </c>
+      <c r="B210" s="16">
+        <v>25589</v>
+      </c>
+      <c r="C210" s="16">
+        <v>25589</v>
+      </c>
+      <c r="D210" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="E210" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="F210" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="G210" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="H210" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="I210" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="J210" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="K210" s="16">
+        <v>32894</v>
+      </c>
+      <c r="L210" s="16">
+        <v>25589</v>
+      </c>
+    </row>
+    <row r="211" spans="1:12">
+      <c r="A211" s="18">
+        <v>10850</v>
+      </c>
+      <c r="B211" s="16">
+        <v>25589</v>
+      </c>
+      <c r="C211" s="16">
+        <v>25589</v>
+      </c>
+      <c r="D211" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="E211" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="F211" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="G211" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="H211" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="I211" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="J211" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="K211" s="16">
+        <v>32894</v>
+      </c>
+      <c r="L211" s="16">
+        <v>25589</v>
+      </c>
+    </row>
+    <row r="212" spans="1:12">
+      <c r="A212" s="18">
+        <v>10164</v>
+      </c>
+      <c r="B212" s="16">
+        <v>25589</v>
+      </c>
+      <c r="C212" s="16">
+        <v>25589</v>
+      </c>
+      <c r="D212" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="E212" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="F212" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="G212" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="H212" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="I212" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="J212" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="K212" s="16">
+        <v>32894</v>
+      </c>
+      <c r="L212" s="16">
+        <v>25589</v>
+      </c>
+    </row>
+    <row r="213" spans="1:12">
+      <c r="A213" s="18">
+        <v>10133</v>
+      </c>
+      <c r="B213" s="16">
+        <v>25589</v>
+      </c>
+      <c r="C213" s="16">
+        <v>25589</v>
+      </c>
+      <c r="D213" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="E213" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="F213" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="G213" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="H213" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="I213" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="J213" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="K213" s="16">
+        <v>32894</v>
+      </c>
+      <c r="L213" s="16">
+        <v>25589</v>
+      </c>
+    </row>
+    <row r="214" spans="1:12">
+      <c r="A214" s="18">
+        <v>11150</v>
+      </c>
+      <c r="B214" s="16">
+        <v>25589</v>
+      </c>
+      <c r="C214" s="16">
+        <v>25589</v>
+      </c>
+      <c r="D214" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="E214" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="F214" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="G214" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="H214" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="I214" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="J214" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="K214" s="16">
+        <v>32894</v>
+      </c>
+      <c r="L214" s="16">
+        <v>25589</v>
+      </c>
+    </row>
+    <row r="215" spans="1:12">
+      <c r="A215" s="18">
+        <v>728</v>
+      </c>
+      <c r="B215" s="16">
+        <v>25589</v>
+      </c>
+      <c r="C215" s="16">
+        <v>25589</v>
+      </c>
+      <c r="D215" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="E215" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="F215" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="G215" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="H215" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="I215" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="J215" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="K215" s="16">
+        <v>32894</v>
+      </c>
+      <c r="L215" s="16">
+        <v>25589</v>
+      </c>
+    </row>
+    <row r="216" spans="1:12">
+      <c r="A216" s="18">
+        <v>10623</v>
+      </c>
+      <c r="B216" s="16">
+        <v>25589</v>
+      </c>
+      <c r="C216" s="16">
+        <v>25589</v>
+      </c>
+      <c r="D216" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="E216" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="F216" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="G216" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="H216" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="I216" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="J216" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="K216" s="16">
+        <v>32894</v>
+      </c>
+      <c r="L216" s="16">
+        <v>25589</v>
+      </c>
+    </row>
+    <row r="217" spans="1:12">
+      <c r="A217" s="18">
+        <v>10789</v>
+      </c>
+      <c r="B217" s="16">
+        <v>25589</v>
+      </c>
+      <c r="C217" s="16">
+        <v>25589</v>
+      </c>
+      <c r="D217" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="E217" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="F217" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="G217" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="H217" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="I217" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="J217" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="K217" s="16">
+        <v>32894</v>
+      </c>
+      <c r="L217" s="16">
+        <v>25589</v>
+      </c>
+    </row>
+    <row r="218" spans="1:12">
+      <c r="A218" s="18">
+        <v>10942</v>
+      </c>
+      <c r="B218" s="16">
+        <v>25589</v>
+      </c>
+      <c r="C218" s="16">
+        <v>25589</v>
+      </c>
+      <c r="D218" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="E218" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="F218" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="G218" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="H218" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="I218" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="J218" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="K218" s="16">
+        <v>32894</v>
+      </c>
+      <c r="L218" s="16">
+        <v>25589</v>
+      </c>
+    </row>
+    <row r="219" spans="1:12">
+      <c r="A219" s="18">
+        <v>10956</v>
+      </c>
+      <c r="B219" s="16">
+        <v>25589</v>
+      </c>
+      <c r="C219" s="16">
+        <v>25589</v>
+      </c>
+      <c r="D219" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="E219" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="F219" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="G219" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="H219" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="I219" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="J219" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="K219" s="16">
+        <v>32894</v>
+      </c>
+      <c r="L219" s="16">
+        <v>25589</v>
+      </c>
+    </row>
+    <row r="220" spans="1:12">
+      <c r="A220" s="18">
+        <v>1609</v>
+      </c>
+      <c r="B220" s="16">
+        <v>25589</v>
+      </c>
+      <c r="C220" s="16">
+        <v>25589</v>
+      </c>
+      <c r="D220" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="E220" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="F220" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="G220" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="H220" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="I220" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="J220" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="K220" s="16">
+        <v>32894</v>
+      </c>
+      <c r="L220" s="16">
+        <v>25589</v>
+      </c>
+    </row>
+    <row r="221" spans="1:12">
+      <c r="A221" s="18">
+        <v>11178</v>
+      </c>
+      <c r="B221" s="16">
+        <v>25589</v>
+      </c>
+      <c r="C221" s="16">
+        <v>25589</v>
+      </c>
+      <c r="D221" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="E221" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="F221" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="G221" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="H221" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="I221" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="J221" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="K221" s="16">
+        <v>32894</v>
+      </c>
+      <c r="L221" s="16">
+        <v>25589</v>
+      </c>
+    </row>
+    <row r="222" spans="1:12">
+      <c r="A222" s="18">
+        <v>614</v>
+      </c>
+      <c r="B222" s="16">
+        <v>25589</v>
+      </c>
+      <c r="C222" s="16">
+        <v>25589</v>
+      </c>
+      <c r="D222" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="E222" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="F222" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="G222" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="H222" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="I222" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="J222" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="K222" s="16">
+        <v>32894</v>
+      </c>
+      <c r="L222" s="16">
+        <v>25589</v>
+      </c>
+    </row>
+    <row r="223" spans="1:12">
+      <c r="A223" s="18">
+        <v>11146</v>
+      </c>
+      <c r="B223" s="16">
+        <v>25589</v>
+      </c>
+      <c r="C223" s="16">
+        <v>25589</v>
+      </c>
+      <c r="D223" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="E223" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="F223" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="G223" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="H223" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="I223" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="J223" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="K223" s="16">
+        <v>32894</v>
+      </c>
+      <c r="L223" s="16">
+        <v>25589</v>
+      </c>
+    </row>
+    <row r="224" spans="1:12">
+      <c r="A224" s="18">
+        <v>10252</v>
+      </c>
+      <c r="B224" s="16">
+        <v>25589</v>
+      </c>
+      <c r="C224" s="16">
+        <v>25589</v>
+      </c>
+      <c r="D224" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="E224" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="F224" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="G224" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="H224" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="I224" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="J224" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="K224" s="16">
+        <v>32894</v>
+      </c>
+      <c r="L224" s="16">
+        <v>25589</v>
+      </c>
+    </row>
+    <row r="225" spans="1:12">
+      <c r="A225" s="18">
+        <v>10898</v>
+      </c>
+      <c r="B225" s="16">
+        <v>25589</v>
+      </c>
+      <c r="C225" s="16">
+        <v>25589</v>
+      </c>
+      <c r="D225" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="E225" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="F225" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="G225" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="H225" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="I225" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="J225" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="K225" s="16">
+        <v>32894</v>
+      </c>
+      <c r="L225" s="16">
+        <v>25589</v>
+      </c>
+    </row>
+    <row r="226" spans="1:12">
+      <c r="A226" s="18">
+        <v>90</v>
+      </c>
+      <c r="B226" s="16">
+        <v>25589</v>
+      </c>
+      <c r="C226" s="16">
+        <v>25589</v>
+      </c>
+      <c r="D226" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="E226" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="F226" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="G226" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="H226" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="I226" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="J226" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="K226" s="16">
+        <v>32894</v>
+      </c>
+      <c r="L226" s="16">
+        <v>25589</v>
+      </c>
+    </row>
+    <row r="227" spans="1:12">
+      <c r="A227" s="18">
+        <v>10931</v>
+      </c>
+      <c r="B227" s="16">
+        <v>25589</v>
+      </c>
+      <c r="C227" s="16">
+        <v>25589</v>
+      </c>
+      <c r="D227" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="E227" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="F227" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="G227" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="H227" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="I227" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="J227" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="K227" s="16">
+        <v>32894</v>
+      </c>
+      <c r="L227" s="16">
+        <v>25589</v>
+      </c>
+    </row>
+    <row r="228" spans="1:12">
+      <c r="A228" s="18">
+        <v>10969</v>
+      </c>
+      <c r="B228" s="16">
+        <v>25589</v>
+      </c>
+      <c r="C228" s="16">
+        <v>25589</v>
+      </c>
+      <c r="D228" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="E228" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="F228" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="G228" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="H228" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="I228" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="J228" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="K228" s="16">
+        <v>32894</v>
+      </c>
+      <c r="L228" s="16">
+        <v>25589</v>
+      </c>
+    </row>
+    <row r="229" spans="1:12">
+      <c r="A229" s="18">
+        <v>11135</v>
+      </c>
+      <c r="B229" s="16">
+        <v>25589</v>
+      </c>
+      <c r="C229" s="16">
+        <v>25589</v>
+      </c>
+      <c r="D229" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="E229" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="F229" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="G229" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="H229" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="I229" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="J229" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="K229" s="16">
+        <v>32894</v>
+      </c>
+      <c r="L229" s="16">
+        <v>25589</v>
+      </c>
+    </row>
+    <row r="230" spans="1:12">
+      <c r="A230" s="18">
+        <v>10796</v>
+      </c>
+      <c r="B230" s="16">
+        <v>25589</v>
+      </c>
+      <c r="C230" s="16">
+        <v>25589</v>
+      </c>
+      <c r="D230" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="E230" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="F230" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="G230" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="H230" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="I230" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="J230" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="K230" s="16">
+        <v>32894</v>
+      </c>
+      <c r="L230" s="16">
+        <v>25589</v>
+      </c>
+    </row>
+    <row r="231" spans="1:12">
+      <c r="A231" s="18">
+        <v>10567</v>
+      </c>
+      <c r="B231" s="16">
+        <v>25589</v>
+      </c>
+      <c r="C231" s="16">
+        <v>25589</v>
+      </c>
+      <c r="D231" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="E231" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="F231" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="G231" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="H231" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="I231" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="J231" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="K231" s="16">
+        <v>32894</v>
+      </c>
+      <c r="L231" s="16">
+        <v>25589</v>
+      </c>
+    </row>
+    <row r="232" spans="1:12">
+      <c r="A232" s="18">
+        <v>1502</v>
+      </c>
+      <c r="B232" s="16">
+        <v>25589</v>
+      </c>
+      <c r="C232" s="16">
+        <v>25589</v>
+      </c>
+      <c r="D232" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="E232" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="F232" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="G232" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="H232" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="I232" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="J232" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="K232" s="16">
+        <v>32894</v>
+      </c>
+      <c r="L232" s="16">
+        <v>25589</v>
+      </c>
+    </row>
+    <row r="233" spans="1:12">
+      <c r="A233" s="18">
+        <v>10777</v>
+      </c>
+      <c r="B233" s="16">
+        <v>25589</v>
+      </c>
+      <c r="C233" s="16">
+        <v>25589</v>
+      </c>
+      <c r="D233" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="E233" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="F233" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="G233" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="H233" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="I233" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="J233" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="K233" s="16">
+        <v>32894</v>
+      </c>
+      <c r="L233" s="16">
+        <v>25589</v>
+      </c>
+    </row>
+    <row r="234" spans="1:12">
+      <c r="A234" s="18">
+        <v>10544</v>
+      </c>
+      <c r="B234" s="16">
+        <v>25589</v>
+      </c>
+      <c r="C234" s="16">
+        <v>25589</v>
+      </c>
+      <c r="D234" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="E234" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="F234" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="G234" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="H234" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="I234" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="J234" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="K234" s="16">
+        <v>32894</v>
+      </c>
+      <c r="L234" s="16">
+        <v>25589</v>
+      </c>
+    </row>
+    <row r="235" spans="1:12">
+      <c r="A235" s="18">
+        <v>10738</v>
+      </c>
+      <c r="B235" s="16">
+        <v>25589</v>
+      </c>
+      <c r="C235" s="16">
+        <v>25589</v>
+      </c>
+      <c r="D235" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="E235" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="F235" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="G235" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="H235" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="I235" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="J235" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="K235" s="16">
+        <v>32894</v>
+      </c>
+      <c r="L235" s="16">
+        <v>25589</v>
+      </c>
+    </row>
+    <row r="236" spans="1:12">
+      <c r="A236" s="18">
+        <v>10577</v>
+      </c>
+      <c r="B236" s="16">
+        <v>25589</v>
+      </c>
+      <c r="C236" s="16">
+        <v>25589</v>
+      </c>
+      <c r="D236" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="E236" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="F236" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="G236" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="H236" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="I236" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="J236" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="K236" s="16">
+        <v>32894</v>
+      </c>
+      <c r="L236" s="16">
+        <v>25589</v>
+      </c>
+    </row>
+    <row r="237" spans="1:12">
+      <c r="A237" s="18">
+        <v>541</v>
+      </c>
+      <c r="B237" s="16">
+        <v>25589</v>
+      </c>
+      <c r="C237" s="16">
+        <v>25589</v>
+      </c>
+      <c r="D237" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="E237" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="F237" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="G237" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="H237" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="I237" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="J237" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="K237" s="16">
+        <v>32894</v>
+      </c>
+      <c r="L237" s="16">
+        <v>25589</v>
+      </c>
+    </row>
+    <row r="238" spans="1:12">
+      <c r="A238" s="19">
+        <v>11203</v>
+      </c>
+      <c r="B238" s="16">
+        <v>25589</v>
+      </c>
+      <c r="C238" s="16">
+        <v>25589</v>
+      </c>
+      <c r="D238" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="E238" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="F238" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="G238" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="H238" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="I238" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="J238" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="K238" s="16">
+        <v>32894</v>
+      </c>
+      <c r="L238" s="16">
+        <v>25589</v>
+      </c>
+    </row>
+    <row r="239" spans="1:12">
+      <c r="A239" s="18">
+        <v>11026</v>
+      </c>
+      <c r="B239" s="16">
+        <v>25589</v>
+      </c>
+      <c r="C239" s="16">
+        <v>25589</v>
+      </c>
+      <c r="D239" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="E239" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="F239" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="G239" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="H239" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="I239" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="J239" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="K239" s="16">
+        <v>32894</v>
+      </c>
+      <c r="L239" s="16">
+        <v>25589</v>
+      </c>
+    </row>
+    <row r="240" spans="1:12">
+      <c r="A240" s="18">
+        <v>10570</v>
+      </c>
+      <c r="B240" s="16">
+        <v>25589</v>
+      </c>
+      <c r="C240" s="16">
+        <v>25589</v>
+      </c>
+      <c r="D240" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="E240" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="F240" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="G240" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="H240" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="I240" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="J240" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="K240" s="16">
+        <v>32894</v>
+      </c>
+      <c r="L240" s="16">
+        <v>25589</v>
+      </c>
+    </row>
+    <row r="241" spans="1:12">
+      <c r="A241" s="18">
+        <v>10857</v>
+      </c>
+      <c r="B241" s="16">
+        <v>25589</v>
+      </c>
+      <c r="C241" s="16">
+        <v>25589</v>
+      </c>
+      <c r="D241" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="E241" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="F241" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="G241" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="H241" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="I241" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="J241" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="K241" s="16">
+        <v>32894</v>
+      </c>
+      <c r="L241" s="16">
+        <v>25589</v>
+      </c>
+    </row>
+    <row r="242" spans="1:12">
+      <c r="A242" s="18">
+        <v>10880</v>
+      </c>
+      <c r="B242" s="16">
+        <v>25589</v>
+      </c>
+      <c r="C242" s="16">
+        <v>25589</v>
+      </c>
+      <c r="D242" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="E242" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="F242" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="G242" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="H242" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="I242" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="J242" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="K242" s="16">
+        <v>32894</v>
+      </c>
+      <c r="L242" s="16">
+        <v>25589</v>
+      </c>
+    </row>
+    <row r="243" spans="1:12">
+      <c r="A243" s="18">
+        <v>10644</v>
+      </c>
+      <c r="B243" s="16">
+        <v>25589</v>
+      </c>
+      <c r="C243" s="16">
+        <v>25589</v>
+      </c>
+      <c r="D243" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="E243" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="F243" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="G243" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="H243" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="I243" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="J243" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="K243" s="16">
+        <v>32894</v>
+      </c>
+      <c r="L243" s="16">
+        <v>25589</v>
+      </c>
+    </row>
+    <row r="244" spans="1:12">
+      <c r="A244" s="18">
+        <v>10994</v>
+      </c>
+      <c r="B244" s="16">
+        <v>25589</v>
+      </c>
+      <c r="C244" s="16">
+        <v>25589</v>
+      </c>
+      <c r="D244" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="E244" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="F244" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="G244" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="H244" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="I244" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="J244" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="K244" s="16">
+        <v>32894</v>
+      </c>
+      <c r="L244" s="16">
+        <v>25589</v>
+      </c>
+    </row>
+    <row r="245" spans="1:12">
+      <c r="A245" s="18">
+        <v>1571</v>
+      </c>
+      <c r="B245" s="16">
+        <v>25589</v>
+      </c>
+      <c r="C245" s="16">
+        <v>25589</v>
+      </c>
+      <c r="D245" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="E245" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="F245" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="G245" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="H245" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="I245" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="J245" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="K245" s="16">
+        <v>32894</v>
+      </c>
+      <c r="L245" s="16">
+        <v>25589</v>
+      </c>
+    </row>
+    <row r="246" spans="1:12">
+      <c r="A246" s="18">
+        <v>10883</v>
+      </c>
+      <c r="B246" s="16">
+        <v>25589</v>
+      </c>
+      <c r="C246" s="16">
+        <v>25589</v>
+      </c>
+      <c r="D246" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="E246" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="F246" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="G246" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="H246" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="I246" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="J246" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="K246" s="16">
+        <v>32894</v>
+      </c>
+      <c r="L246" s="16">
+        <v>25589</v>
+      </c>
+    </row>
+    <row r="247" spans="1:12">
+      <c r="A247" s="18">
+        <v>743</v>
+      </c>
+      <c r="B247" s="16">
+        <v>25589</v>
+      </c>
+      <c r="C247" s="16">
+        <v>25589</v>
+      </c>
+      <c r="D247" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="E247" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="F247" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="G247" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="H247" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="I247" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="J247" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="K247" s="16">
+        <v>32894</v>
+      </c>
+      <c r="L247" s="16">
+        <v>25589</v>
+      </c>
+    </row>
+    <row r="248" spans="1:12">
+      <c r="A248" s="18">
+        <v>10701</v>
+      </c>
+      <c r="B248" s="16">
+        <v>25589</v>
+      </c>
+      <c r="C248" s="16">
+        <v>25589</v>
+      </c>
+      <c r="D248" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="E248" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="F248" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="G248" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="H248" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="I248" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="J248" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="K248" s="16">
+        <v>32894</v>
+      </c>
+      <c r="L248" s="16">
+        <v>25589</v>
+      </c>
+    </row>
+    <row r="249" spans="1:12">
+      <c r="A249" s="18">
+        <v>10860</v>
+      </c>
+      <c r="B249" s="16">
+        <v>25589</v>
+      </c>
+      <c r="C249" s="16">
+        <v>25589</v>
+      </c>
+      <c r="D249" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="E249" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="F249" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="G249" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="H249" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="I249" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="J249" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="K249" s="16">
+        <v>32894</v>
+      </c>
+      <c r="L249" s="16">
+        <v>25589</v>
+      </c>
+    </row>
+    <row r="250" spans="1:12">
+      <c r="A250" s="18">
+        <v>10731</v>
+      </c>
+      <c r="B250" s="16">
+        <v>25589</v>
+      </c>
+      <c r="C250" s="16">
+        <v>25589</v>
+      </c>
+      <c r="D250" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="E250" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="F250" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="G250" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="H250" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="I250" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="J250" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="K250" s="16">
+        <v>32894</v>
+      </c>
+      <c r="L250" s="16">
+        <v>25589</v>
+      </c>
+    </row>
+    <row r="251" spans="1:12">
+      <c r="A251" s="18">
+        <v>10937</v>
+      </c>
+      <c r="B251" s="16">
+        <v>25589</v>
+      </c>
+      <c r="C251" s="16">
+        <v>25589</v>
+      </c>
+      <c r="D251" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="E251" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="F251" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="G251" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="H251" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="I251" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="J251" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="K251" s="16">
+        <v>32894</v>
+      </c>
+      <c r="L251" s="16">
+        <v>25589</v>
+      </c>
+    </row>
+    <row r="252" spans="1:12">
+      <c r="A252" s="18">
+        <v>10911</v>
+      </c>
+      <c r="B252" s="16">
+        <v>25589</v>
+      </c>
+      <c r="C252" s="16">
+        <v>25589</v>
+      </c>
+      <c r="D252" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="E252" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="F252" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="G252" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="H252" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="I252" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="J252" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="K252" s="16">
+        <v>32894</v>
+      </c>
+      <c r="L252" s="16">
+        <v>25589</v>
+      </c>
+    </row>
+    <row r="253" spans="1:12">
+      <c r="A253" s="18">
+        <v>10932</v>
+      </c>
+      <c r="B253" s="16">
+        <v>25589</v>
+      </c>
+      <c r="C253" s="16">
+        <v>25589</v>
+      </c>
+      <c r="D253" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="E253" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="F253" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="G253" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="H253" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="I253" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="J253" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="K253" s="16">
+        <v>32894</v>
+      </c>
+      <c r="L253" s="16">
+        <v>25589</v>
+      </c>
+    </row>
+    <row r="254" spans="1:12">
+      <c r="A254" s="18">
+        <v>10294</v>
+      </c>
+      <c r="B254" s="16">
+        <v>25589</v>
+      </c>
+      <c r="C254" s="16">
+        <v>25589</v>
+      </c>
+      <c r="D254" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="E254" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="F254" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="G254" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="H254" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="I254" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="J254" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="K254" s="16">
+        <v>32894</v>
+      </c>
+      <c r="L254" s="16">
+        <v>25589</v>
+      </c>
+    </row>
+    <row r="255" spans="1:12">
+      <c r="A255" s="18">
+        <v>10993</v>
+      </c>
+      <c r="B255" s="16">
+        <v>25589</v>
+      </c>
+      <c r="C255" s="16">
+        <v>25589</v>
+      </c>
+      <c r="D255" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="E255" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="F255" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="G255" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="H255" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="I255" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="J255" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="K255" s="16">
+        <v>32894</v>
+      </c>
+      <c r="L255" s="16">
+        <v>25589</v>
+      </c>
+    </row>
+    <row r="256" spans="1:12">
+      <c r="A256" s="18">
+        <v>10474</v>
+      </c>
+      <c r="B256" s="16">
+        <v>25589</v>
+      </c>
+      <c r="C256" s="16">
+        <v>25589</v>
+      </c>
+      <c r="D256" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="E256" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="F256" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="G256" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="H256" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="I256" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="J256" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="K256" s="16">
+        <v>32894</v>
+      </c>
+      <c r="L256" s="16">
+        <v>25589</v>
+      </c>
+    </row>
+    <row r="257" spans="1:12">
+      <c r="A257" s="18">
+        <v>10668</v>
+      </c>
+      <c r="B257" s="16">
+        <v>25589</v>
+      </c>
+      <c r="C257" s="16">
+        <v>25589</v>
+      </c>
+      <c r="D257" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="E257" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="F257" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="G257" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="H257" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="I257" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="J257" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="K257" s="16">
+        <v>32894</v>
+      </c>
+      <c r="L257" s="16">
+        <v>25589</v>
+      </c>
+    </row>
+    <row r="258" spans="1:12">
+      <c r="A258" s="18">
+        <v>11155</v>
+      </c>
+      <c r="B258" s="16">
+        <v>25589</v>
+      </c>
+      <c r="C258" s="16">
+        <v>25589</v>
+      </c>
+      <c r="D258" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="E258" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="F258" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="G258" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="H258" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="I258" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="J258" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="K258" s="16">
+        <v>32894</v>
+      </c>
+      <c r="L258" s="16">
+        <v>25589</v>
+      </c>
+    </row>
+    <row r="259" spans="1:12">
+      <c r="A259" s="18">
+        <v>10953</v>
+      </c>
+      <c r="B259" s="16">
+        <v>25589</v>
+      </c>
+      <c r="C259" s="16">
+        <v>25589</v>
+      </c>
+      <c r="D259" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="E259" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="F259" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="G259" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="H259" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="I259" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="J259" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="K259" s="16">
+        <v>32894</v>
+      </c>
+      <c r="L259" s="16">
+        <v>25589</v>
+      </c>
+    </row>
+    <row r="260" spans="1:12">
+      <c r="A260" s="18">
+        <v>10467</v>
+      </c>
+      <c r="B260" s="16">
+        <v>25589</v>
+      </c>
+      <c r="C260" s="16">
+        <v>25589</v>
+      </c>
+      <c r="D260" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="E260" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="F260" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="G260" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="H260" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="I260" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="J260" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="K260" s="16">
+        <v>32894</v>
+      </c>
+      <c r="L260" s="16">
+        <v>25589</v>
+      </c>
+    </row>
+    <row r="261" spans="1:12">
+      <c r="A261" s="18">
+        <v>10559</v>
+      </c>
+      <c r="B261" s="16">
+        <v>25589</v>
+      </c>
+      <c r="C261" s="16">
+        <v>25589</v>
+      </c>
+      <c r="D261" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="E261" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="F261" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="G261" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="H261" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="I261" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="J261" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="K261" s="16">
+        <v>32894</v>
+      </c>
+      <c r="L261" s="16">
+        <v>25589</v>
+      </c>
+    </row>
+    <row r="262" spans="1:12">
+      <c r="A262" s="18">
+        <v>10715</v>
+      </c>
+      <c r="B262" s="16">
+        <v>25589</v>
+      </c>
+      <c r="C262" s="16">
+        <v>25589</v>
+      </c>
+      <c r="D262" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="E262" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="F262" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="G262" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="H262" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="I262" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="J262" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="K262" s="16">
+        <v>32894</v>
+      </c>
+      <c r="L262" s="16">
+        <v>25589</v>
+      </c>
+    </row>
+    <row r="263" spans="1:12">
+      <c r="A263" s="18">
+        <v>11215</v>
+      </c>
+      <c r="B263" s="16">
+        <v>25589</v>
+      </c>
+      <c r="C263" s="16">
+        <v>25589</v>
+      </c>
+      <c r="D263" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="E263" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="F263" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="G263" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="H263" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="I263" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="J263" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="K263" s="16">
+        <v>32894</v>
+      </c>
+      <c r="L263" s="16">
+        <v>25589</v>
+      </c>
+    </row>
+    <row r="264" spans="1:12">
+      <c r="A264" s="18">
+        <v>357</v>
+      </c>
+      <c r="B264" s="16">
+        <v>25589</v>
+      </c>
+      <c r="C264" s="16">
+        <v>25589</v>
+      </c>
+      <c r="D264" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="E264" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="F264" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="G264" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="H264" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="I264" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="J264" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="K264" s="16">
+        <v>32894</v>
+      </c>
+      <c r="L264" s="16">
+        <v>25589</v>
+      </c>
+    </row>
+    <row r="265" spans="1:12">
+      <c r="A265" s="18">
+        <v>10832</v>
+      </c>
+      <c r="B265" s="16">
+        <v>25589</v>
+      </c>
+      <c r="C265" s="16">
+        <v>25589</v>
+      </c>
+      <c r="D265" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="E265" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="F265" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="G265" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="H265" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="I265" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="J265" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="K265" s="16">
+        <v>32894</v>
+      </c>
+      <c r="L265" s="16">
+        <v>25589</v>
+      </c>
+    </row>
+    <row r="266" spans="1:12">
+      <c r="A266" s="18">
+        <v>10678</v>
+      </c>
+      <c r="B266" s="16">
+        <v>25589</v>
+      </c>
+      <c r="C266" s="16">
+        <v>25589</v>
+      </c>
+      <c r="D266" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="E266" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="F266" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="G266" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="H266" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="I266" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="J266" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="K266" s="16">
+        <v>32894</v>
+      </c>
+      <c r="L266" s="16">
+        <v>25589</v>
+      </c>
+    </row>
+    <row r="267" spans="1:12">
+      <c r="A267" s="18">
+        <v>10434</v>
+      </c>
+      <c r="B267" s="16">
+        <v>25589</v>
+      </c>
+      <c r="C267" s="16">
+        <v>25589</v>
+      </c>
+      <c r="D267" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="E267" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="F267" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="G267" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="H267" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="I267" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="J267" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="K267" s="16">
+        <v>32894</v>
+      </c>
+      <c r="L267" s="16">
+        <v>25589</v>
+      </c>
+    </row>
+    <row r="268" spans="1:12">
+      <c r="A268" s="18">
+        <v>10852</v>
+      </c>
+      <c r="B268" s="16">
+        <v>25589</v>
+      </c>
+      <c r="C268" s="16">
+        <v>25589</v>
+      </c>
+      <c r="D268" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="E268" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="F268" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="G268" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="H268" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="I268" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="J268" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="K268" s="16">
+        <v>32894</v>
+      </c>
+      <c r="L268" s="16">
+        <v>25589</v>
+      </c>
+    </row>
+    <row r="269" spans="1:12">
+      <c r="A269" s="18">
+        <v>10962</v>
+      </c>
+      <c r="B269" s="16">
+        <v>25589</v>
+      </c>
+      <c r="C269" s="16">
+        <v>25589</v>
+      </c>
+      <c r="D269" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="E269" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="F269" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="G269" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="H269" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="I269" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="J269" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="K269" s="16">
+        <v>32894</v>
+      </c>
+      <c r="L269" s="16">
+        <v>25589</v>
+      </c>
+    </row>
+    <row r="270" spans="1:12">
+      <c r="A270" s="18">
+        <v>11106</v>
+      </c>
+      <c r="B270" s="16">
+        <v>25589</v>
+      </c>
+      <c r="C270" s="16">
+        <v>25589</v>
+      </c>
+      <c r="D270" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="E270" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="F270" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="G270" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="H270" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="I270" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="J270" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="K270" s="16">
+        <v>32894</v>
+      </c>
+      <c r="L270" s="16">
+        <v>25589</v>
+      </c>
+    </row>
+    <row r="271" spans="1:12">
+      <c r="A271" s="18">
+        <v>10754</v>
+      </c>
+      <c r="B271" s="16">
+        <v>25589</v>
+      </c>
+      <c r="C271" s="16">
+        <v>25589</v>
+      </c>
+      <c r="D271" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="E271" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="F271" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="G271" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="H271" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="I271" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="J271" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="K271" s="16">
+        <v>32894</v>
+      </c>
+      <c r="L271" s="16">
+        <v>25589</v>
+      </c>
+    </row>
+    <row r="272" spans="1:12">
+      <c r="A272" s="18">
+        <v>10915</v>
+      </c>
+      <c r="B272" s="16">
+        <v>25589</v>
+      </c>
+      <c r="C272" s="16">
+        <v>25589</v>
+      </c>
+      <c r="D272" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="E272" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="F272" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="G272" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="H272" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="I272" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="J272" s="15" t="s">
+        <v>100</v>
+      </c>
+      <c r="K272" s="16">
+        <v>32894</v>
+      </c>
+      <c r="L272" s="16">
+        <v>25589</v>
+      </c>
+    </row>
+    <row r="273" spans="1:12">
+      <c r="A273" s="18">
+        <v>10927</v>
+      </c>
+      <c r="B273" s="16">
+        <v>25589</v>
+      </c>
+      <c r="C273" s="16">
+        <v>25589</v>
+      </c>
+      <c r="D273" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="E273" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="F273" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="G273" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="H273" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="I273" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="J273" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="K273" s="16">
+        <v>32894</v>
+      </c>
+      <c r="L273" s="16">
+        <v>25589</v>
+      </c>
+    </row>
+    <row r="274" spans="1:12">
+      <c r="A274" s="18">
+        <v>10046</v>
+      </c>
+      <c r="B274" s="16">
+        <v>25589</v>
+      </c>
+      <c r="C274" s="16">
+        <v>25589</v>
+      </c>
+      <c r="D274" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="E274" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="F274" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="G274" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="H274" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="I274" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="J274" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="K274" s="16">
+        <v>32894</v>
+      </c>
+      <c r="L274" s="16">
+        <v>25589</v>
+      </c>
+    </row>
+    <row r="275" spans="1:12">
+      <c r="A275" s="18">
+        <v>1167</v>
+      </c>
+      <c r="B275" s="16">
+        <v>25589</v>
+      </c>
+      <c r="C275" s="16">
+        <v>25589</v>
+      </c>
+      <c r="D275" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="E275" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="F275" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="G275" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="H275" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="I275" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="J275" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="K275" s="16">
+        <v>32894</v>
+      </c>
+      <c r="L275" s="16">
+        <v>25589</v>
+      </c>
+    </row>
+    <row r="276" spans="1:12">
+      <c r="A276" s="18">
+        <v>10615</v>
+      </c>
+      <c r="B276" s="16">
+        <v>25589</v>
+      </c>
+      <c r="C276" s="16">
+        <v>25589</v>
+      </c>
+      <c r="D276" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="E276" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="F276" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="G276" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="H276" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="I276" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="J276" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="K276" s="16">
+        <v>32894</v>
+      </c>
+      <c r="L276" s="16">
+        <v>25589</v>
+      </c>
+    </row>
+    <row r="277" spans="1:12">
+      <c r="A277" s="18">
+        <v>11003</v>
+      </c>
+      <c r="B277" s="16">
+        <v>25589</v>
+      </c>
+      <c r="C277" s="16">
+        <v>25589</v>
+      </c>
+      <c r="D277" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="E277" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="F277" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="G277" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="H277" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="I277" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="J277" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="K277" s="16">
+        <v>32894</v>
+      </c>
+      <c r="L277" s="16">
+        <v>25589</v>
+      </c>
+    </row>
+    <row r="278" spans="1:12">
+      <c r="A278" s="18">
+        <v>11108</v>
+      </c>
+      <c r="B278" s="16">
+        <v>25589</v>
+      </c>
+      <c r="C278" s="16">
+        <v>25589</v>
+      </c>
+      <c r="D278" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="E278" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="F278" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="G278" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="H278" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="I278" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="J278" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="K278" s="16">
+        <v>32894</v>
+      </c>
+      <c r="L278" s="16">
+        <v>25589</v>
+      </c>
+    </row>
+    <row r="279" spans="1:12">
+      <c r="A279" s="18">
+        <v>10908</v>
+      </c>
+      <c r="B279" s="16">
+        <v>25589</v>
+      </c>
+      <c r="C279" s="16">
+        <v>25589</v>
+      </c>
+      <c r="D279" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="E279" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="F279" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="G279" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="H279" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="I279" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="J279" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="K279" s="16">
+        <v>32894</v>
+      </c>
+      <c r="L279" s="16">
+        <v>25589</v>
+      </c>
+    </row>
+    <row r="280" spans="1:12">
+      <c r="A280" s="18">
+        <v>10606</v>
+      </c>
+      <c r="B280" s="16">
+        <v>25589</v>
+      </c>
+      <c r="C280" s="16">
+        <v>25589</v>
+      </c>
+      <c r="D280" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="E280" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="F280" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="G280" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="H280" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="I280" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="J280" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="K280" s="16">
+        <v>32894</v>
+      </c>
+      <c r="L280" s="16">
+        <v>25589</v>
+      </c>
+    </row>
+    <row r="281" spans="1:12">
+      <c r="A281" s="18">
+        <v>10986</v>
+      </c>
+      <c r="B281" s="16">
+        <v>25589</v>
+      </c>
+      <c r="C281" s="16">
+        <v>25589</v>
+      </c>
+      <c r="D281" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="E281" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="F281" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="G281" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="H281" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="I281" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="J281" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="K281" s="16">
+        <v>32894</v>
+      </c>
+      <c r="L281" s="16">
+        <v>25589</v>
+      </c>
+    </row>
+    <row r="282" spans="1:12">
+      <c r="A282" s="18">
+        <v>10599</v>
+      </c>
+      <c r="B282" s="16">
+        <v>25589</v>
+      </c>
+      <c r="C282" s="16">
+        <v>25589</v>
+      </c>
+      <c r="D282" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="E282" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="F282" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="G282" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="H282" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="I282" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="J282" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="K282" s="16">
+        <v>32894</v>
+      </c>
+      <c r="L282" s="16">
+        <v>25589</v>
+      </c>
+    </row>
+    <row r="283" spans="1:12">
+      <c r="A283" s="18">
+        <v>11244</v>
+      </c>
+      <c r="B283" s="16">
+        <v>25589</v>
+      </c>
+      <c r="C283" s="16">
+        <v>25589</v>
+      </c>
+      <c r="D283" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="E283" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="F283" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="G283" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="H283" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="I283" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="J283" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="K283" s="16">
+        <v>32894</v>
+      </c>
+      <c r="L283" s="16">
+        <v>25589</v>
+      </c>
+    </row>
+    <row r="284" spans="1:12">
+      <c r="A284" s="18">
+        <v>10868</v>
+      </c>
+      <c r="B284" s="16">
+        <v>25589</v>
+      </c>
+      <c r="C284" s="16">
+        <v>25589</v>
+      </c>
+      <c r="D284" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="E284" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="F284" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="G284" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="H284" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="I284" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="J284" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="K284" s="16">
+        <v>32894</v>
+      </c>
+      <c r="L284" s="16">
+        <v>25589</v>
+      </c>
+    </row>
+    <row r="285" spans="1:12">
+      <c r="A285" s="18">
+        <v>10978</v>
+      </c>
+      <c r="B285" s="16">
+        <v>25589</v>
+      </c>
+      <c r="C285" s="16">
+        <v>25589</v>
+      </c>
+      <c r="D285" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="E285" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="F285" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="G285" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="H285" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="I285" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="J285" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="K285" s="16">
+        <v>32894</v>
+      </c>
+      <c r="L285" s="16">
+        <v>25589</v>
+      </c>
+    </row>
+    <row r="286" spans="1:12">
+      <c r="A286" s="18">
+        <v>10600</v>
+      </c>
+      <c r="B286" s="16">
+        <v>25589</v>
+      </c>
+      <c r="C286" s="16">
+        <v>25589</v>
+      </c>
+      <c r="D286" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="E286" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="F286" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="G286" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="H286" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="I286" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="J286" s="15" t="s">
+        <v>114</v>
+      </c>
+      <c r="K286" s="16">
+        <v>32894</v>
+      </c>
+      <c r="L286" s="16">
+        <v>25589</v>
+      </c>
+    </row>
+    <row r="287" spans="1:12">
+      <c r="A287" s="18">
+        <v>359</v>
+      </c>
+      <c r="B287" s="16">
+        <v>25589</v>
+      </c>
+      <c r="C287" s="16">
+        <v>25589</v>
+      </c>
+      <c r="D287" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="E287" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="F287" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="G287" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="H287" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="I287" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="J287" s="15" t="s">
+        <v>115</v>
+      </c>
+      <c r="K287" s="16">
+        <v>32894</v>
+      </c>
+      <c r="L287" s="16">
+        <v>25589</v>
+      </c>
+    </row>
+    <row r="288" spans="1:12">
+      <c r="A288" s="18">
+        <v>10888</v>
+      </c>
+      <c r="B288" s="16">
+        <v>25589</v>
+      </c>
+      <c r="C288" s="16">
+        <v>25589</v>
+      </c>
+      <c r="D288" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="E288" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="F288" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="G288" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="H288" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="I288" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="J288" s="15" t="s">
+        <v>116</v>
+      </c>
+      <c r="K288" s="16">
+        <v>32894</v>
+      </c>
+      <c r="L288" s="16">
+        <v>25589</v>
+      </c>
+    </row>
+    <row r="289" spans="1:12">
+      <c r="A289" s="18">
+        <v>10594</v>
+      </c>
+      <c r="B289" s="16">
+        <v>25589</v>
+      </c>
+      <c r="C289" s="16">
+        <v>25589</v>
+      </c>
+      <c r="D289" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="E289" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="F289" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="G289" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="H289" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="I289" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="J289" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="K289" s="16">
+        <v>32894</v>
+      </c>
+      <c r="L289" s="16">
+        <v>25589</v>
+      </c>
+    </row>
+    <row r="290" spans="1:12">
+      <c r="A290" s="18">
+        <v>11131</v>
+      </c>
+      <c r="B290" s="16">
+        <v>25589</v>
+      </c>
+      <c r="C290" s="16">
+        <v>25589</v>
+      </c>
+      <c r="D290" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="E290" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="F290" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="G290" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="H290" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="I290" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="J290" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="K290" s="16">
+        <v>32894</v>
+      </c>
+      <c r="L290" s="16">
+        <v>25589</v>
+      </c>
+    </row>
+    <row r="291" spans="1:12">
+      <c r="A291" s="18">
+        <v>10201</v>
+      </c>
+      <c r="B291" s="16">
+        <v>25589</v>
+      </c>
+      <c r="C291" s="16">
+        <v>25589</v>
+      </c>
+      <c r="D291" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="E291" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="F291" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="G291" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="H291" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="I291" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="J291" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="K291" s="16">
+        <v>32894</v>
+      </c>
+      <c r="L291" s="16">
+        <v>25589</v>
+      </c>
+    </row>
+    <row r="292" spans="1:12">
+      <c r="A292" s="18">
+        <v>10529</v>
+      </c>
+      <c r="B292" s="16">
+        <v>25589</v>
+      </c>
+      <c r="C292" s="16">
+        <v>25589</v>
+      </c>
+      <c r="D292" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="E292" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="F292" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="G292" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="H292" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="I292" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="J292" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="K292" s="16">
+        <v>32894</v>
+      </c>
+      <c r="L292" s="16">
+        <v>25589</v>
+      </c>
+    </row>
+    <row r="293" spans="1:12">
+      <c r="A293" s="18">
+        <v>11050</v>
+      </c>
+      <c r="B293" s="16">
+        <v>25589</v>
+      </c>
+      <c r="C293" s="16">
+        <v>25589</v>
+      </c>
+      <c r="D293" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="E293" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="F293" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="G293" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="H293" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="I293" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="J293" s="15" t="s">
+        <v>121</v>
+      </c>
+      <c r="K293" s="16">
+        <v>32894</v>
+      </c>
+      <c r="L293" s="16">
+        <v>25589</v>
+      </c>
+    </row>
+    <row r="294" spans="1:12">
+      <c r="A294" s="18">
+        <v>10767</v>
+      </c>
+      <c r="B294" s="16">
+        <v>25589</v>
+      </c>
+      <c r="C294" s="16">
+        <v>25589</v>
+      </c>
+      <c r="D294" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="E294" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="F294" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="G294" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="H294" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="I294" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="J294" s="15" t="s">
+        <v>122</v>
+      </c>
+      <c r="K294" s="16">
+        <v>32894</v>
+      </c>
+      <c r="L294" s="16">
+        <v>25589</v>
+      </c>
+    </row>
+    <row r="295" spans="1:12">
+      <c r="A295" s="18">
+        <v>10542</v>
+      </c>
+      <c r="B295" s="16">
+        <v>25589</v>
+      </c>
+      <c r="C295" s="16">
+        <v>25589</v>
+      </c>
+      <c r="D295" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="E295" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="F295" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="G295" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="H295" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="I295" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="J295" s="15" t="s">
+        <v>123</v>
+      </c>
+      <c r="K295" s="16">
+        <v>32894</v>
+      </c>
+      <c r="L295" s="16">
+        <v>25589</v>
+      </c>
+    </row>
+    <row r="296" spans="1:12">
+      <c r="A296" s="18">
+        <v>1064</v>
+      </c>
+      <c r="B296" s="16">
+        <v>25589</v>
+      </c>
+      <c r="C296" s="16">
+        <v>25589</v>
+      </c>
+      <c r="D296" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="E296" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="F296" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="G296" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="H296" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="I296" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="J296" s="15" t="s">
+        <v>124</v>
+      </c>
+      <c r="K296" s="16">
+        <v>32894</v>
+      </c>
+      <c r="L296" s="16">
+        <v>25589</v>
+      </c>
+    </row>
+    <row r="297" spans="1:12">
+      <c r="A297" s="18">
+        <v>11014</v>
+      </c>
+      <c r="B297" s="16">
+        <v>25589</v>
+      </c>
+      <c r="C297" s="16">
+        <v>25589</v>
+      </c>
+      <c r="D297" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="E297" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="F297" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="G297" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="H297" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="I297" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="J297" s="15" t="s">
+        <v>125</v>
+      </c>
+      <c r="K297" s="16">
+        <v>32894</v>
+      </c>
+      <c r="L297" s="16">
+        <v>25589</v>
+      </c>
+    </row>
+    <row r="298" spans="1:12">
+      <c r="A298" s="18">
+        <v>10574</v>
+      </c>
+      <c r="B298" s="16">
+        <v>25589</v>
+      </c>
+      <c r="C298" s="16">
+        <v>25589</v>
+      </c>
+      <c r="D298" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="E298" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="F298" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="G298" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="H298" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="I298" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="J298" s="15" t="s">
+        <v>126</v>
+      </c>
+      <c r="K298" s="16">
+        <v>32894</v>
+      </c>
+      <c r="L298" s="16">
+        <v>25589</v>
+      </c>
+    </row>
+    <row r="299" spans="1:12">
+      <c r="A299" s="18">
+        <v>10409</v>
+      </c>
+      <c r="B299" s="16">
+        <v>25589</v>
+      </c>
+      <c r="C299" s="16">
+        <v>25589</v>
+      </c>
+      <c r="D299" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="E299" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="F299" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="G299" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="H299" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="I299" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="J299" s="15" t="s">
+        <v>127</v>
+      </c>
+      <c r="K299" s="16">
+        <v>32894</v>
+      </c>
+      <c r="L299" s="16">
+        <v>25589</v>
+      </c>
+    </row>
+    <row r="300" spans="1:12">
+      <c r="A300" s="18">
+        <v>10958</v>
+      </c>
+      <c r="B300" s="16">
+        <v>25589</v>
+      </c>
+      <c r="C300" s="16">
+        <v>25589</v>
+      </c>
+      <c r="D300" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="E300" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="F300" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="G300" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="H300" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="I300" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="J300" s="15" t="s">
+        <v>128</v>
+      </c>
+      <c r="K300" s="16">
+        <v>32894</v>
+      </c>
+      <c r="L300" s="16">
+        <v>25589</v>
+      </c>
+    </row>
+    <row r="301" spans="1:12">
+      <c r="A301" s="18">
+        <v>10684</v>
+      </c>
+      <c r="B301" s="16">
+        <v>25589</v>
+      </c>
+      <c r="C301" s="16">
+        <v>25589</v>
+      </c>
+      <c r="D301" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="E301" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="F301" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="G301" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="H301" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="I301" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="J301" s="15" t="s">
+        <v>129</v>
+      </c>
+      <c r="K301" s="16">
+        <v>32894</v>
+      </c>
+      <c r="L301" s="16">
+        <v>25589</v>
+      </c>
+    </row>
+    <row r="302" spans="1:12">
+      <c r="A302" s="18">
+        <v>11040</v>
+      </c>
+      <c r="B302" s="16">
+        <v>25589</v>
+      </c>
+      <c r="C302" s="16">
+        <v>25589</v>
+      </c>
+      <c r="D302" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="E302" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="F302" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="G302" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="H302" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="I302" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="J302" s="15" t="s">
+        <v>130</v>
+      </c>
+      <c r="K302" s="16">
+        <v>32894</v>
+      </c>
+      <c r="L302" s="16">
+        <v>25589</v>
+      </c>
+    </row>
+    <row r="303" spans="1:12">
+      <c r="A303" s="18">
+        <v>10405</v>
+      </c>
+      <c r="B303" s="16">
+        <v>25589</v>
+      </c>
+      <c r="C303" s="16">
+        <v>25589</v>
+      </c>
+      <c r="D303" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="E303" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="F303" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="G303" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="H303" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="I303" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="J303" s="15" t="s">
+        <v>131</v>
+      </c>
+      <c r="K303" s="16">
+        <v>32894</v>
+      </c>
+      <c r="L303" s="16">
+        <v>25589</v>
+      </c>
+    </row>
+    <row r="304" spans="1:12">
+      <c r="A304" s="18">
+        <v>10609</v>
+      </c>
+      <c r="B304" s="16">
+        <v>25589</v>
+      </c>
+      <c r="C304" s="16">
+        <v>25589</v>
+      </c>
+      <c r="D304" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="E304" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="F304" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="G304" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="H304" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="I304" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="J304" s="15" t="s">
+        <v>132</v>
+      </c>
+      <c r="K304" s="16">
+        <v>32894</v>
+      </c>
+      <c r="L304" s="16">
+        <v>25589</v>
+      </c>
+    </row>
+    <row r="305" spans="1:12">
+      <c r="A305" s="18">
+        <v>11139</v>
+      </c>
+      <c r="B305" s="16">
+        <v>25589</v>
+      </c>
+      <c r="C305" s="16">
+        <v>25589</v>
+      </c>
+      <c r="D305" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="E305" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="F305" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="G305" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="H305" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="I305" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="J305" s="15" t="s">
+        <v>133</v>
+      </c>
+      <c r="K305" s="16">
+        <v>32894</v>
+      </c>
+      <c r="L305" s="16">
         <v>25589</v>
       </c>
     </row>
